--- a/output/data/totales_ene_99-19.xlsx
+++ b/output/data/totales_ene_99-19.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C211"/>
+  <dimension ref="A1:C421"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,7 +360,7 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ciiu</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -377,2111 +377,2111 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1. Agricultura, ganadería, silvicultura y pesca</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2">
-        <v>715158</v>
+        <v>551793.2101639205</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2. Minería</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B3">
-        <v>64259</v>
+        <v>56748.59541135361</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3. Industrias manufactureras</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B4">
-        <v>731894</v>
+        <v>166493.1558226889</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4. Suministro de electricidad, gas y agua</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B5">
-        <v>26548</v>
+        <v>13017.37431064748</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5. Construcción</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B6">
-        <v>363108</v>
+        <v>52591.15411512755</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6. Comercio, hoteles y restaurantes</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B7">
-        <v>917712</v>
+        <v>44519.10383376129</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7. Transporte y comunicaciones</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B8">
-        <v>374553</v>
+        <v>19078.26666044956</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8. Servicios financieros, inmobiliarios y empresariales</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B9">
-        <v>361883</v>
+        <v>275941.8446456252</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>9. Servicios sociales, domésticos, profesionales y otros</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B10">
-        <v>720601</v>
+        <v>60540.25133314363</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B11">
-        <v>4275716</v>
+        <v>247155.1962122276</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1. Agricultura, ganadería, silvicultura y pesca</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B12">
-        <v>717684</v>
+        <v>130670.5163728058</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2. Minería</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B13">
-        <v>60212</v>
+        <v>59532.45380480719</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3. Industrias manufactureras</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B14">
-        <v>720413</v>
+        <v>924764.053324136</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4. Suministro de electricidad, gas y agua</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B15">
-        <v>25622</v>
+        <v>350168.3531934275</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5. Construcción</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B16">
-        <v>389481</v>
+        <v>25362.75954157719</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6. Comercio, hoteles y restaurantes</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B17">
-        <v>881317</v>
+        <v>66798.83220122725</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>7. Transporte y comunicaciones</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B18">
-        <v>397817</v>
+        <v>41815.24599952802</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>8. Servicios financieros, inmobiliarios y empresariales</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B19">
-        <v>391147</v>
+        <v>212107.9020246184</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>9. Servicios sociales, domésticos, profesionales y otros</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B20">
-        <v>672184</v>
+        <v>24685.91337484955</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B21">
-        <v>4255877</v>
+        <v>63326.95546185715</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1. Agricultura, ganadería, silvicultura y pesca</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B22">
-        <v>696442</v>
+        <v>42716.68949465481</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2. Minería</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B23">
-        <v>62904</v>
+        <v>35797.03293454306</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3. Industrias manufactureras</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B24">
-        <v>747130</v>
+        <v>111622.8780721098</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4. Suministro de electricidad, gas y agua</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B25">
-        <v>31446</v>
+        <v>41454.91395195084</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5. Construcción</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B26">
-        <v>409015</v>
+        <v>197049.9582967325</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6. Comercio, hoteles y restaurantes</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B27">
-        <v>913022</v>
+        <v>524818.1930687258</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>7. Transporte y comunicaciones</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B28">
-        <v>410826</v>
+        <v>27649.43978795628</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>8. Servicios financieros, inmobiliarios y empresariales</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B29">
-        <v>382315</v>
+        <v>295671.6313134459</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>9. Servicios sociales, domésticos, profesionales y otros</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B30">
-        <v>732807</v>
+        <v>108214.8936001091</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B31">
-        <v>4385907</v>
+        <v>22480.78236817856</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2001</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1. Agricultura, ganadería, silvicultura y pesca</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B32">
-        <v>690460</v>
+        <v>7659.992266978018</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2. Minería</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B33">
-        <v>60588</v>
+        <v>78303.90010771276</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3. Industrias manufactureras</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B34">
-        <v>750006</v>
+        <v>21738.59573145163</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>4. Suministro de electricidad, gas y agua</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B35">
-        <v>27730</v>
+        <v>69525.9433006811</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5. Construcción</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B36">
-        <v>422177</v>
+        <v>208527.3326080995</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6. Comercio, hoteles y restaurantes</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B37">
-        <v>964742</v>
+        <v>2574.58448395478</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>7. Transporte y comunicaciones</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B38">
-        <v>416290</v>
+        <v>90766.30336423843</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>8. Servicios financieros, inmobiliarios y empresariales</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B39">
-        <v>400832</v>
+        <v>210434.1493247236</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>9. Servicios sociales, domésticos, profesionales y otros</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B40">
-        <v>743237</v>
+        <v>48237.89015555985</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B41">
-        <v>4476062</v>
+        <v>83113.5682332891</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1. Agricultura, ganadería, silvicultura y pesca</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B42">
-        <v>719183</v>
+        <v>80912.52601610949</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2. Minería</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B43">
-        <v>63962</v>
+        <v>5696382.336288984</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3. Industrias manufactureras</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B44">
-        <v>757320</v>
+        <v>520232.3715751382</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>4. Suministro de electricidad, gas y agua</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B45">
-        <v>29821</v>
+        <v>61662.575262861</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5. Construcción</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B46">
-        <v>412265</v>
+        <v>175466.0650707119</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6. Comercio, hoteles y restaurantes</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B47">
-        <v>956835</v>
+        <v>3547.438392481282</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>7. Transporte y comunicaciones</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B48">
-        <v>451912</v>
+        <v>55170.69220779774</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>8. Servicios financieros, inmobiliarios y empresariales</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B49">
-        <v>424327</v>
+        <v>36086.12072079304</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>9. Servicios sociales, domésticos, profesionales y otros</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B50">
-        <v>767519</v>
+        <v>18094.86971853759</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B51">
-        <v>4583144</v>
+        <v>310805.0096797175</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>1. Agricultura, ganadería, silvicultura y pesca</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B52">
-        <v>730712</v>
+        <v>64870.33302835005</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2. Minería</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B53">
-        <v>67813</v>
+        <v>225887.1193415675</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>3. Industrias manufactureras</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B54">
-        <v>761463</v>
+        <v>131644.9125624957</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>4. Suministro de electricidad, gas y agua</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B55">
-        <v>30695</v>
+        <v>61709.98332283216</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5. Construcción</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B56">
-        <v>446463</v>
+        <v>914040.5977323983</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>6. Comercio, hoteles y restaurantes</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B57">
-        <v>1006367</v>
+        <v>324425.5551266848</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>7. Transporte y comunicaciones</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B58">
-        <v>429675</v>
+        <v>30247.24939175091</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>8. Servicios financieros, inmobiliarios y empresariales</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B59">
-        <v>443167</v>
+        <v>77568.13027124267</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>9. Servicios sociales, domésticos, profesionales y otros</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B60">
-        <v>796491</v>
+        <v>47501.93987546334</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B61">
-        <v>4712846</v>
+        <v>229083.9021283888</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1. Agricultura, ganadería, silvicultura y pesca</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B62">
-        <v>722752</v>
+        <v>27766.76533886294</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2. Minería</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B63">
-        <v>66215</v>
+        <v>59508.53511388437</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>3. Industrias manufactureras</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B64">
-        <v>737635</v>
+        <v>47814.08851525291</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>4. Suministro de electricidad, gas y agua</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B65">
-        <v>34410</v>
+        <v>41175.45486117277</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>5. Construcción</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B66">
-        <v>452248</v>
+        <v>115235.0122054687</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>6. Comercio, hoteles y restaurantes</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B67">
-        <v>1006153</v>
+        <v>36864.79600622015</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>7. Transporte y comunicaciones</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B68">
-        <v>442387</v>
+        <v>221971.7480531948</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>8. Servicios financieros, inmobiliarios y empresariales</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B69">
-        <v>486086</v>
+        <v>609980.8570821036</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>9. Servicios sociales, domésticos, profesionales y otros</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B70">
-        <v>842860</v>
+        <v>41635.4328930312</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B71">
-        <v>4790746</v>
+        <v>301693.0884603203</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>1. Agricultura, ganadería, silvicultura y pesca</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B72">
-        <v>770616</v>
+        <v>111489.9208632627</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2. Minería</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B73">
-        <v>77502</v>
+        <v>20544.9115169442</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>3. Industrias manufactureras</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B74">
-        <v>795572</v>
+        <v>5120.343060666048</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>4. Suministro de electricidad, gas y agua</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B75">
-        <v>37833</v>
+        <v>71883.42036467417</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>5. Construcción</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B76">
-        <v>504620</v>
+        <v>27260.51765697441</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>6. Comercio, hoteles y restaurantes</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B77">
-        <v>1138207</v>
+        <v>67040.49021475452</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>7. Transporte y comunicaciones</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B78">
-        <v>485357</v>
+        <v>224208.4679928811</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>8. Servicios financieros, inmobiliarios y empresariales</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B79">
-        <v>521577</v>
+        <v>2121.714470077975</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>9. Servicios sociales, domésticos, profesionales y otros</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B80">
-        <v>861267</v>
+        <v>101076.4711447232</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B81">
-        <v>5192551</v>
+        <v>204364.8334756205</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>1. Agricultura, ganadería, silvicultura y pesca</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B82">
-        <v>760643</v>
+        <v>52961.49741470918</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2. Minería</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B83">
-        <v>80767</v>
+        <v>84200.60753775237</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>3. Industrias manufactureras</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B84">
-        <v>807430</v>
+        <v>69246.17011642522</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>4. Suministro de electricidad, gas y agua</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B85">
-        <v>38708</v>
+        <v>5833210.00976819</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>5. Construcción</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B86">
-        <v>517912</v>
+        <v>517890.3646310362</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>6. Comercio, hoteles y restaurantes</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B87">
-        <v>1177526</v>
+        <v>65326.8530603183</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>7. Transporte y comunicaciones</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B88">
-        <v>509763</v>
+        <v>192913.1707404126</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>8. Servicios financieros, inmobiliarios y empresariales</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B89">
-        <v>571803</v>
+        <v>5705.415232228705</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>9. Servicios sociales, domésticos, profesionales y otros</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B90">
-        <v>882463</v>
+        <v>56774.08571515511</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B91">
-        <v>5347015</v>
+        <v>40607.92259149676</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>1. Agricultura, ganadería, silvicultura y pesca</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B92">
-        <v>740808</v>
+        <v>21067.87079811571</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2. Minería</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B93">
-        <v>87970</v>
+        <v>377750.5790769513</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>3. Industrias manufactureras</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B94">
-        <v>820417</v>
+        <v>64760.77173245606</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>4. Suministro de electricidad, gas y agua</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B95">
-        <v>36811</v>
+        <v>214924.5114341183</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>5. Construcción</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B96">
-        <v>560648</v>
+        <v>136873.408858595</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>6. Comercio, hoteles y restaurantes</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B97">
-        <v>1209224</v>
+        <v>58789.22575221854</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>7. Transporte y comunicaciones</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B98">
-        <v>531792</v>
+        <v>891967.5929197745</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>8. Servicios financieros, inmobiliarios y empresariales</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B99">
-        <v>587514</v>
+        <v>373052.5691191136</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>9. Servicios sociales, domésticos, profesionales y otros</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B100">
-        <v>935906</v>
+        <v>30573.53315326408</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B101">
-        <v>5511090</v>
+        <v>76717.8987408557</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2008</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>1. Agricultura, ganadería, silvicultura y pesca</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B102">
-        <v>720505</v>
+        <v>52186.55707620388</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2. Minería</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B103">
-        <v>92452</v>
+        <v>239031.4118692142</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>3. Industrias manufactureras</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B104">
-        <v>801699</v>
+        <v>33316.94410390183</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>4. Suministro de electricidad, gas y agua</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B105">
-        <v>31414</v>
+        <v>58077.02638230973</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>5. Construcción</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B106">
-        <v>534760</v>
+        <v>43196.29026113687</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>6. Comercio, hoteles y restaurantes</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B107">
-        <v>1242408</v>
+        <v>44461.89940381138</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>7. Transporte y comunicaciones</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B108">
-        <v>512675</v>
+        <v>132700.1662231013</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>8. Servicios financieros, inmobiliarios y empresariales</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B109">
-        <v>599174</v>
+        <v>32035.94516648633</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>9. Servicios sociales, domésticos, profesionales y otros</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B110">
-        <v>936492</v>
+        <v>217119.0977078179</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B111">
-        <v>5471579</v>
+        <v>553701.4528401007</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>1. Agricultura, ganadería, silvicultura y pesca</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B112">
-        <v>484196.5243766789</v>
+        <v>37474.72215132312</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2. Minería</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B113">
-        <v>82437.57906980341</v>
+        <v>338778.7136666178</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>3. Industrias manufactureras</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B114">
-        <v>621238.5245496402</v>
+        <v>129168.3397832904</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>4. Suministro de electricidad, gas y agua</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B115">
-        <v>40632.86754687499</v>
+        <v>17881.08957387401</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>5. Construcción</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B116">
-        <v>440347.6160383089</v>
+        <v>6530.957905878722</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>6. Comercio, hoteles y restaurantes</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B117">
-        <v>1073309.106965711</v>
+        <v>77628.32529811545</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>7. Transporte y comunicaciones</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B118">
-        <v>378842.5382236752</v>
+        <v>18304.80385264636</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>8. Servicios financieros, inmobiliarios y empresariales</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B119">
-        <v>805457.6108478692</v>
+        <v>66187.79929460348</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>9. Servicios sociales, domésticos, profesionales y otros</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B120">
-        <v>597678.2730387525</v>
+        <v>221546.8289570368</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B121">
-        <v>4524140.640657314</v>
+        <v>1916.540108464908</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>1. Agricultura, ganadería, silvicultura y pesca</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B122">
-        <v>488832.1411069619</v>
+        <v>104491.3831910388</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2. Minería</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B123">
-        <v>90346.84212420975</v>
+        <v>217919.0742039449</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>3. Industrias manufactureras</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B124">
-        <v>612371.4288129468</v>
+        <v>53501.85418910466</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>4. Suministro de electricidad, gas y agua</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B125">
-        <v>32831.14343127027</v>
+        <v>73474.44616015386</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>5. Construcción</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B126">
-        <v>485287.3156286019</v>
+        <v>75666.19190272347</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>6. Comercio, hoteles y restaurantes</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B127">
-        <v>1089836.256983861</v>
+        <v>5971993.634829012</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>7. Transporte y comunicaciones</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B128">
-        <v>375698.458708931</v>
+        <v>467791.612364541</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>8. Servicios financieros, inmobiliarios y empresariales</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B129">
-        <v>896956.5651402165</v>
+        <v>51102.05512399179</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>9. Servicios sociales, domésticos, profesionales y otros</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B130">
-        <v>633904.3973552739</v>
+        <v>188850.7954543765</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B131">
-        <v>4706064.549292273</v>
+        <v>3158.471883089176</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>1. Agricultura, ganadería, silvicultura y pesca</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B132">
-        <v>480807.6384313047</v>
+        <v>51482.44510427377</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2. Minería</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B133">
-        <v>93481.252045366</v>
+        <v>34535.30675325486</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>3. Industrias manufactureras</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B134">
-        <v>659638.6422454292</v>
+        <v>15481.78228222529</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>4. Suministro de electricidad, gas y agua</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B135">
-        <v>33929.13267108216</v>
+        <v>393139.4182021628</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>5. Construcción</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B136">
-        <v>535106.2851217593</v>
+        <v>66179.94890356787</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>6. Comercio, hoteles y restaurantes</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B137">
-        <v>1122828.731905271</v>
+        <v>228380.1735340393</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>7. Transporte y comunicaciones</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B138">
-        <v>420486.551787305</v>
+        <v>147235.9375707396</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>8. Servicios financieros, inmobiliarios y empresariales</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B139">
-        <v>841889.7974184286</v>
+        <v>52231.37991589284</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>9. Servicios sociales, domésticos, profesionales y otros</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B140">
-        <v>678867.1428596248</v>
+        <v>938006.7230550308</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B141">
-        <v>4867035.174485571</v>
+        <v>377792.1217434966</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>1. Agricultura, ganadería, silvicultura y pesca</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B142">
-        <v>421691.8597033774</v>
+        <v>26766.96193274361</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -2492,11 +2492,11 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2. Minería</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B143">
-        <v>79559.04420333102</v>
+        <v>76289.62718617303</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -2507,11 +2507,11 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>3. Industrias manufactureras</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B144">
-        <v>645054.3890205867</v>
+        <v>54509.01346870203</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -2522,11 +2522,11 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>4. Suministro de electricidad, gas y agua</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B145">
-        <v>31630.10743716924</v>
+        <v>235817.5018174105</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -2537,11 +2537,11 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>5. Construcción</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B146">
-        <v>554059.8288219278</v>
+        <v>46145.48429465401</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -2552,11 +2552,11 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>6. Comercio, hoteles y restaurantes</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B147">
-        <v>1165645.800148034</v>
+        <v>62095.96362682118</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -2567,11 +2567,11 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>7. Transporte y comunicaciones</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B148">
-        <v>413617.7328354837</v>
+        <v>55381.42365981125</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -2582,11 +2582,11 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>8. Servicios financieros, inmobiliarios y empresariales</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B149">
-        <v>894985.0799941173</v>
+        <v>42610.57824471536</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -2597,11 +2597,11 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>9. Servicios sociales, domésticos, profesionales y otros</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B150">
-        <v>738771.2261743152</v>
+        <v>144614.4021399544</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -2612,11 +2612,11 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B151">
-        <v>4945015.068338343</v>
+        <v>44004.49193473978</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -2627,885 +2627,885 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>1. Agricultura, ganadería, silvicultura y pesca</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B152">
-        <v>440149.9208967644</v>
+        <v>241158.4762777093</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2. Minería</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B153">
-        <v>83039.11763256275</v>
+        <v>556516.8719550178</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>3. Industrias manufactureras</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B154">
-        <v>624425.7007439886</v>
+        <v>40150.93950352917</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>4. Suministro de electricidad, gas y agua</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B155">
-        <v>37075.99639146296</v>
+        <v>369443.9045958525</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>5. Construcción</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B156">
-        <v>552634.9146600248</v>
+        <v>137919.6215096785</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>6. Comercio, hoteles y restaurantes</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B157">
-        <v>1180556.854881029</v>
+        <v>17087.07106037625</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>7. Transporte y comunicaciones</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B158">
-        <v>409280.7935243975</v>
+        <v>5121.021474124843</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>8. Servicios financieros, inmobiliarios y empresariales</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B159">
-        <v>875496.1751492316</v>
+        <v>86582.6588885653</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>9. Servicios sociales, domésticos, profesionales y otros</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B160">
-        <v>758959.1464657813</v>
+        <v>25200.92312079808</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B161">
-        <v>4961618.620345243</v>
+        <v>64098.9037487735</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>1. Agricultura, ganadería, silvicultura y pesca</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B162">
-        <v>456150.2894848834</v>
+        <v>236935.8551692679</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2. Minería</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B163">
-        <v>82097.32764613359</v>
+        <v>3276.909896187492</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>3. Industrias manufactureras</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B164">
-        <v>644745.7421559709</v>
+        <v>88499.01524426835</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>4. Suministro de electricidad, gas y agua</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B165">
-        <v>35460.94180164635</v>
+        <v>262520.519517819</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>5. Construcción</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B166">
-        <v>605042.9591716912</v>
+        <v>49393.89397301782</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>6. Comercio, hoteles y restaurantes</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B167">
-        <v>1235884.118050864</v>
+        <v>77605.81821845345</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>7. Transporte y comunicaciones</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B168">
-        <v>421009.4040115874</v>
+        <v>70164.91336506043</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>8. Servicios financieros, inmobiliarios y empresariales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B169">
-        <v>856582.2997017141</v>
+        <v>6135280.937714907</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>9. Servicios sociales, domésticos, profesionales y otros</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B170">
-        <v>751798.1643200555</v>
+        <v>483641.7891525863</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B171">
-        <v>5088771.246344547</v>
+        <v>42826.86976072068</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>1. Agricultura, ganadería, silvicultura y pesca</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B172">
-        <v>488350.0353289087</v>
+        <v>175338.8210840174</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2. Minería</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B173">
-        <v>84834.9837816036</v>
+        <v>5386.741482879895</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>3. Industrias manufactureras</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B174">
-        <v>621494.0990942846</v>
+        <v>62387.17666990597</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>4. Suministro de electricidad, gas y agua</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B175">
-        <v>48450.3799203813</v>
+        <v>40815.27749194542</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>5. Construcción</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B176">
-        <v>513805.3470137427</v>
+        <v>17517.54262687343</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>6. Comercio, hoteles y restaurantes</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B177">
-        <v>1246484.367628212</v>
+        <v>370505.4588299362</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>7. Transporte y comunicaciones</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B178">
-        <v>440438.6492727437</v>
+        <v>58917.24107238694</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>8. Servicios financieros, inmobiliarios y empresariales</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B179">
-        <v>847613.1158857357</v>
+        <v>267055.8157992858</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>9. Servicios sociales, domésticos, profesionales y otros</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B180">
-        <v>773458.7185995219</v>
+        <v>160797.4179770621</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B181">
-        <v>5064929.696525134</v>
+        <v>59619.49527810914</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>1. Agricultura, ganadería, silvicultura y pesca</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B182">
-        <v>481334.7610000562</v>
+        <v>966190.3049249987</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2. Minería</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B183">
-        <v>93894.16203118279</v>
+        <v>369952.3572597502</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>3. Industrias manufactureras</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B184">
-        <v>642651.8186100421</v>
+        <v>29211.33819746571</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>4. Suministro de electricidad, gas y agua</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B185">
-        <v>61686.6766906612</v>
+        <v>88600.19700568952</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>5. Construcción</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B186">
-        <v>531167.9600179179</v>
+        <v>44147.45769693914</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>6. Comercio, hoteles y restaurantes</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B187">
-        <v>1220492.215549637</v>
+        <v>262380.9150490492</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>7. Transporte y comunicaciones</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B188">
-        <v>492631.605930023</v>
+        <v>32854.97364640915</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>8. Servicios financieros, inmobiliarios y empresariales</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B189">
-        <v>792264.2873527175</v>
+        <v>57467.65010364536</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>9. Servicios sociales, domésticos, profesionales y otros</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B190">
-        <v>808069.6101354691</v>
+        <v>56506.89294092929</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B191">
-        <v>5124193.097317707</v>
+        <v>42736.79206786754</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>1. Agricultura, ganadería, silvicultura y pesca</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B192">
-        <v>482020.8620353944</v>
+        <v>148696.4378515046</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2. Minería</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B193">
-        <v>90010.86718969671</v>
+        <v>42572.16829263491</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>3. Industrias manufactureras</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B194">
-        <v>613365.4868841992</v>
+        <v>232206.5595159923</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>4. Suministro de electricidad, gas y agua</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B195">
-        <v>65133.78412604852</v>
+        <v>558551.3869262654</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>5. Construcción</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B196">
-        <v>566715.8765964825</v>
+        <v>27732.76188349973</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>6. Comercio, hoteles y restaurantes</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B197">
-        <v>1272837.342848539</v>
+        <v>381455.2566421496</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>7. Transporte y comunicaciones</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B198">
-        <v>538500.4162832219</v>
+        <v>141437.7291282765</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>8. Servicios financieros, inmobiliarios y empresariales</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B199">
-        <v>790053.1490562339</v>
+        <v>21235.63777229008</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>9. Servicios sociales, domésticos, profesionales y otros</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B200">
-        <v>798726.3251758328</v>
+        <v>12567.26666128676</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B201">
-        <v>5217364.110195649</v>
+        <v>81421.33620774494</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>1. Agricultura, ganadería, silvicultura y pesca</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B202">
-        <v>516410.3819456741</v>
+        <v>27263.99301064014</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2. Minería</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B203">
-        <v>98096.69262825386</v>
+        <v>56237.13485077776</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>3. Industrias manufactureras</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B204">
-        <v>596569.2097934319</v>
+        <v>243386.6051768805</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>4. Suministro de electricidad, gas y agua</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B205">
-        <v>74256.69086093284</v>
+        <v>1034.092456731289</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>5. Construcción</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B206">
-        <v>636615.1894047681</v>
+        <v>90578.05572429072</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>6. Comercio, hoteles y restaurantes</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B207">
-        <v>1340175.715250159</v>
+        <v>247391.7643107906</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>7. Transporte y comunicaciones</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B208">
-        <v>493696.5070385784</v>
+        <v>52421.03281485895</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>8. Servicios financieros, inmobiliarios y empresariales</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B209">
-        <v>768556.5821889049</v>
+        <v>75207.19184164303</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>9. Servicios sociales, domésticos, profesionales y otros</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B210">
-        <v>810431.9717884235</v>
+        <v>83849.59692166274</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
@@ -3516,9 +3516,3159 @@
         </is>
       </c>
       <c r="B211">
-        <v>5334808.940899126</v>
+        <v>6220104.534108373</v>
       </c>
       <c r="C211" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B212">
+        <v>514365.8256980966</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B213">
+        <v>53048.12659302158</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B214">
+        <v>185465.9602803625</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B215">
+        <v>7178.022727577554</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B216">
+        <v>70897.30792630574</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B217">
+        <v>46093.30774998954</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B218">
+        <v>22308.93216263692</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B219">
+        <v>393897.6624017694</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B220">
+        <v>70114.36328417418</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B221">
+        <v>297785.1847812198</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B222">
+        <v>161497.5480018944</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B223">
+        <v>60454.39815251288</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B224">
+        <v>1226955.276550095</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B225">
+        <v>382473.7604940682</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B226">
+        <v>32825.51832765435</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B227">
+        <v>93287.99212931213</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B228">
+        <v>49152.29474868267</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B229">
+        <v>308023.6612689232</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B230">
+        <v>25906.73299155701</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B231">
+        <v>45121.92094419232</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B232">
+        <v>49721.82439302123</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B233">
+        <v>48347.24249996889</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B234">
+        <v>151193.5758332753</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B235">
+        <v>55356.50355677226</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B236">
+        <v>237191.4170154958</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B237">
+        <v>532223.1626797433</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B238">
+        <v>26425.84435513741</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B239">
+        <v>394032.558821696</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B240">
+        <v>152064.0516502287</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B241">
+        <v>21323.844583794</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B242">
+        <v>39373.49031083606</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B243">
+        <v>67856.12602462084</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B244">
+        <v>60733.91313272699</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B245">
+        <v>52557.28938599052</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B246">
+        <v>60463.97659834522</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B247">
+        <v>157223.3451969068</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B248">
+        <v>2422.251365622006</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B249">
+        <v>30417.72559313298</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B250">
+        <v>271633.7882223855</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B251">
+        <v>91661.5408443942</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B252">
+        <v>70463.5138823587</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B253">
+        <v>71543.74867747856</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B254">
+        <v>6691084.531837977</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B255">
+        <v>559171.6685848851</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B256">
+        <v>51336.98142017439</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B257">
+        <v>168969.1391029299</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B258">
+        <v>5312.927709695223</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B259">
+        <v>72030.81607969409</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B260">
+        <v>51924.34193368327</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B261">
+        <v>23101.40923818786</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B262">
+        <v>347983.2183688924</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B263">
+        <v>74261.87257517769</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B264">
+        <v>279120.5879415415</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B265">
+        <v>172820.6714342589</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B266">
+        <v>42866.36159761806</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B267">
+        <v>1261986.591099546</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B268">
+        <v>391616.9574791472</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B269">
+        <v>31434.66729991214</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B270">
+        <v>94889.44520643557</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B271">
+        <v>50329.00159838847</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B272">
+        <v>304067.8028571462</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B273">
+        <v>24125.5466566691</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B274">
+        <v>47323.86265449746</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B275">
+        <v>49784.87576134257</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B276">
+        <v>50916.40965139254</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B277">
+        <v>137258.9869761654</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B278">
+        <v>53994.03737425488</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B279">
+        <v>236132.3332969209</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B280">
+        <v>579736.3311111389</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B281">
+        <v>32590.95691039693</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B282">
+        <v>399871.9663956736</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B283">
+        <v>147564.8455306278</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B284">
+        <v>22364.47053231114</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B285">
+        <v>43965.283743202</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B286">
+        <v>82562.31261968194</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B287">
+        <v>49696.85418835981</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B288">
+        <v>71859.55235528816</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B289">
+        <v>50616.86618172035</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B290">
+        <v>141073.7942439302</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B291">
+        <v>1083.007952034158</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B292">
+        <v>37951.50287758351</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B293">
+        <v>260047.5072895599</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B294">
+        <v>88513.16462984016</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B295">
+        <v>78344.17300801995</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B296">
+        <v>73329.58089919481</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B297">
+        <v>6743932.68436712</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B298">
+        <v>552577.5875968788</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B299">
+        <v>75524.64233688069</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B300">
+        <v>172213.9854656636</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B301">
+        <v>8819.551387324236</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B302">
+        <v>87411.80956057535</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B303">
+        <v>48591.75055272646</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B304">
+        <v>19525.98858622562</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B305">
+        <v>367351.9719228736</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B306">
+        <v>66494.58400604884</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B307">
+        <v>262650.6669836368</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B308">
+        <v>176069.257721796</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B309">
+        <v>50083.53566578106</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B310">
+        <v>1225034.675231229</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B311">
+        <v>413130.7956498316</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B312">
+        <v>32425.03945148257</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B313">
+        <v>100173.4670590083</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B314">
+        <v>42673.52283467887</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B315">
+        <v>329262.8367869072</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B316">
+        <v>28099.27904924101</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B317">
+        <v>44243.68982660547</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B318">
+        <v>67292.45490040317</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B319">
+        <v>57007.59742439956</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B320">
+        <v>142719.9832990345</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B321">
+        <v>71899.74080099583</v>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B322">
+        <v>266272.7333718002</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B323">
+        <v>521180.2636695513</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B324">
+        <v>28684.17498998103</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B325">
+        <v>406499.4757732998</v>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B326">
+        <v>169576.8865611058</v>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B327">
+        <v>18958.43585955341</v>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B328">
+        <v>41276.22423365545</v>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B329">
+        <v>95723.512448352</v>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B330">
+        <v>52060.20798468623</v>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B331">
+        <v>89635.24153612212</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B332">
+        <v>54926.32201916815</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B333">
+        <v>158635.3393393796</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B334">
+        <v>4369.181973960196</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B335">
+        <v>44570.50588079438</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B336">
+        <v>272291.2541709848</v>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B337">
+        <v>87740.7981461858</v>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B338">
+        <v>70770.22458110107</v>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B339">
+        <v>61273.60226194986</v>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B340">
+        <v>6885722.79890186</v>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B341">
+        <v>543498.2366661187</v>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B342">
+        <v>69757.72987084417</v>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B343">
+        <v>162824.4020790938</v>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B344">
+        <v>5327.810774928966</v>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B345">
+        <v>56542.95313063599</v>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B346">
+        <v>51863.31906550755</v>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B347">
+        <v>19206.1527584898</v>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B348">
+        <v>388710.5709118263</v>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B349">
+        <v>64503.96329332999</v>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B350">
+        <v>300912.8195298493</v>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B351">
+        <v>169926.5088757309</v>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B352">
+        <v>56997.75214176917</v>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B353">
+        <v>1259937.724162036</v>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B354">
+        <v>422875.0633523155</v>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B355">
+        <v>29186.22099360622</v>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B356">
+        <v>109977.4976232344</v>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B357">
+        <v>58988.58275487017</v>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B358">
+        <v>359183.5180429663</v>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B359">
+        <v>36319.12489311855</v>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B360">
+        <v>47133.01317885661</v>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B361">
+        <v>65227.41775644463</v>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B362">
+        <v>59351.59161600313</v>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B363">
+        <v>139861.1704721237</v>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B364">
+        <v>63349.49224283109</v>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B365">
+        <v>251255.4139355383</v>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B366">
+        <v>536647.7965746605</v>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B367">
+        <v>16634.8457579831</v>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B368">
+        <v>420267.305976505</v>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B369">
+        <v>172029.9598666631</v>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B370">
+        <v>24726.27963879881</v>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B371">
+        <v>41392.25997875194</v>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B372">
+        <v>98298.9021294085</v>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B373">
+        <v>49333.1249101838</v>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B374">
+        <v>78301.50536221749</v>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B375">
+        <v>53419.28747418844</v>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B376">
+        <v>154445.495495601</v>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B377">
+        <v>1110.94803144716</v>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B378">
+        <v>43084.03502373515</v>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B379">
+        <v>275932.4047787859</v>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B380">
+        <v>73915.04998662825</v>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B381">
+        <v>68007.93299555113</v>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B382">
+        <v>71267.75610448157</v>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B383">
+        <v>6971532.94020766</v>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B384">
+        <v>41951.16241138388</v>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B385">
+        <v>159566.0226549224</v>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B386">
+        <v>5835.963814441245</v>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B387">
+        <v>60029.84768593955</v>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B388">
+        <v>54710.86266851608</v>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B389">
+        <v>26757.56662832698</v>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B390">
+        <v>418244.9715517912</v>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B391">
+        <v>67563.77369622856</v>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B392">
+        <v>338328.4940776369</v>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B393">
+        <v>141324.1485182276</v>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B394">
+        <v>1338530.363091368</v>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B395">
+        <v>417933.7123456113</v>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B396">
+        <v>29761.28806278338</v>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B397">
+        <v>107753.7368142816</v>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B398">
+        <v>54021.08920113981</v>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B399">
+        <v>374426.2108617473</v>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B400">
+        <v>28766.80101982091</v>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B401">
+        <v>45526.71614442611</v>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B402">
+        <v>50226.5947339458</v>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B403">
+        <v>168106.1100130048</v>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B404">
+        <v>60930.26753737692</v>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B405">
+        <v>282961.4903699566</v>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B406">
+        <v>464514.2961972379</v>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B407">
+        <v>30442.27558818972</v>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B408">
+        <v>412655.0185299779</v>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B409">
+        <v>187099.672146212</v>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B410">
+        <v>20681.80756517268</v>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B411">
+        <v>63456.51809582075</v>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B412">
+        <v>89785.88684177308</v>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B413">
+        <v>78679.64775073926</v>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B414">
+        <v>51605.50456051363</v>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B415">
+        <v>172969.5846734903</v>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B416">
+        <v>1002.225371042404</v>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B417">
+        <v>275676.1128674283</v>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B418">
+        <v>84622.34030405454</v>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B419">
+        <v>68116.86487987547</v>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B420">
+        <v>79994.08085202212</v>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B421">
+        <v>6354559.030126427</v>
+      </c>
+      <c r="C421" t="inlineStr">
         <is>
           <t>2019</t>
         </is>

--- a/output/data/totales_ene_99-19.xlsx
+++ b/output/data/totales_ene_99-19.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C421"/>
+  <dimension ref="A1:C426"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -381,7 +381,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>551793.2101639205</v>
+        <v>558717.9045708787</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -411,7 +411,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>166493.1558226889</v>
+        <v>167233.0689727387</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -441,7 +441,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>52591.15411512755</v>
+        <v>53871.00322068064</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>19078.26666044956</v>
+        <v>19457.54972280322</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>275941.8446456252</v>
+        <v>277142.5682675843</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>247155.1962122276</v>
+        <v>248005.8153650711</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B12">
-        <v>130670.5163728058</v>
+        <v>131593.5333334028</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="B13">
-        <v>59532.45380480719</v>
+        <v>60153.21903111339</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B14">
-        <v>924764.053324136</v>
+        <v>952673.5019380937</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="B15">
-        <v>350168.3531934275</v>
+        <v>351254.4325064992</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="B17">
-        <v>66798.83220122725</v>
+        <v>66871.72099349748</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B18">
-        <v>41815.24599952802</v>
+        <v>42307.28342267959</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="B19">
-        <v>212107.9020246184</v>
+        <v>215620.5640173548</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="B21">
-        <v>63326.95546185715</v>
+        <v>64209.65277889484</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="B23">
-        <v>35797.03293454306</v>
+        <v>36408.10449002892</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B25">
-        <v>41454.91395195084</v>
+        <v>41530.34599404487</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="B26">
-        <v>197049.9582967325</v>
+        <v>198406.5379590564</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="B27">
-        <v>524818.1930687258</v>
+        <v>526104.8431215485</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="B29">
-        <v>295671.6313134459</v>
+        <v>295976.3067712261</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -801,7 +801,7 @@
         </is>
       </c>
       <c r="B30">
-        <v>108214.8936001091</v>
+        <v>108336.6248580009</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="B33">
-        <v>78303.90010771276</v>
+        <v>79023.46784889806</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         </is>
       </c>
       <c r="B35">
-        <v>69525.9433006811</v>
+        <v>69951.09787743754</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -891,7 +891,7 @@
         </is>
       </c>
       <c r="B36">
-        <v>208527.3326080995</v>
+        <v>552155.1801380722</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="B38">
-        <v>90766.30336423843</v>
+        <v>91356.58653191003</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="B39">
-        <v>210434.1493247236</v>
+        <v>213089.6106110816</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="B41">
-        <v>83113.5682332891</v>
+        <v>83763.25904108831</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -981,7 +981,7 @@
         </is>
       </c>
       <c r="B42">
-        <v>80912.52601610949</v>
+        <v>81400.32095331598</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="B43">
-        <v>5696382.336288984</v>
+        <v>6096168.954503179</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1011,7 +1011,7 @@
         </is>
       </c>
       <c r="B44">
-        <v>520232.3715751382</v>
+        <v>525244.3516725927</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="B46">
-        <v>175466.0650707119</v>
+        <v>176245.1968628315</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="B48">
-        <v>55170.69220779774</v>
+        <v>55549.90536935566</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1086,7 +1086,7 @@
         </is>
       </c>
       <c r="B49">
-        <v>36086.12072079304</v>
+        <v>36305.85500352814</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
         </is>
       </c>
       <c r="B50">
-        <v>18094.86971853759</v>
+        <v>18302.37790425659</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1116,7 +1116,7 @@
         </is>
       </c>
       <c r="B51">
-        <v>310805.0096797175</v>
+        <v>312796.9657207587</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="B52">
-        <v>64870.33302835005</v>
+        <v>64930.56733370342</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="B53">
-        <v>225887.1193415675</v>
+        <v>226485.064055813</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
         </is>
       </c>
       <c r="B54">
-        <v>131644.9125624957</v>
+        <v>132111.6333367605</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="B55">
-        <v>61709.98332283216</v>
+        <v>62589.41703355625</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         </is>
       </c>
       <c r="B56">
-        <v>914040.5977323983</v>
+        <v>939542.5803309886</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         </is>
       </c>
       <c r="B57">
-        <v>324425.5551266848</v>
+        <v>327688.8776103538</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="B59">
-        <v>77568.13027124267</v>
+        <v>77766.6185927788</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="B60">
-        <v>47501.93987546334</v>
+        <v>47615.8674022609</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1266,7 +1266,7 @@
         </is>
       </c>
       <c r="B61">
-        <v>229083.9021283888</v>
+        <v>233969.8223490268</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1281,7 +1281,7 @@
         </is>
       </c>
       <c r="B62">
-        <v>27766.76533886294</v>
+        <v>27933.91509059124</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="B63">
-        <v>59508.53511388437</v>
+        <v>59953.89725882062</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1311,7 +1311,7 @@
         </is>
       </c>
       <c r="B64">
-        <v>47814.08851525291</v>
+        <v>47834.96141722637</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="B65">
-        <v>41175.45486117277</v>
+        <v>42148.35074272179</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         </is>
       </c>
       <c r="B67">
-        <v>36864.79600622015</v>
+        <v>36937.37860884018</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="B68">
-        <v>221971.7480531948</v>
+        <v>222802.3241455153</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="B69">
-        <v>609980.8570821036</v>
+        <v>610134.0936500996</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1431,7 +1431,7 @@
         </is>
       </c>
       <c r="B72">
-        <v>111489.9208632627</v>
+        <v>111550.6408105734</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1476,7 +1476,7 @@
         </is>
       </c>
       <c r="B75">
-        <v>71883.42036467417</v>
+        <v>71895.51595208432</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1506,7 +1506,7 @@
         </is>
       </c>
       <c r="B77">
-        <v>67040.49021475452</v>
+        <v>67353.68075846619</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="B78">
-        <v>224208.4679928811</v>
+        <v>601456.8947763192</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1551,7 +1551,7 @@
         </is>
       </c>
       <c r="B80">
-        <v>101076.4711447232</v>
+        <v>101343.5099424662</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
         </is>
       </c>
       <c r="B81">
-        <v>204364.8334756205</v>
+        <v>205673.9647841896</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="B82">
-        <v>52961.49741470918</v>
+        <v>58131.63930189571</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="B83">
-        <v>84200.60753775237</v>
+        <v>85312.57124651807</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1611,7 +1611,7 @@
         </is>
       </c>
       <c r="B84">
-        <v>69246.17011642522</v>
+        <v>69770.34919846381</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         </is>
       </c>
       <c r="B85">
-        <v>5833210.00976819</v>
+        <v>6266447.071573933</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -1641,7 +1641,7 @@
         </is>
       </c>
       <c r="B86">
-        <v>517890.3646310362</v>
+        <v>522633.700684369</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="B88">
-        <v>192913.1707404126</v>
+        <v>192979.3917406628</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         </is>
       </c>
       <c r="B90">
-        <v>56774.08571515511</v>
+        <v>56853.72674911882</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1716,7 +1716,7 @@
         </is>
       </c>
       <c r="B91">
-        <v>40607.92259149676</v>
+        <v>40685.98091403392</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1731,7 +1731,7 @@
         </is>
       </c>
       <c r="B92">
-        <v>21067.87079811571</v>
+        <v>21230.50395248057</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="B93">
-        <v>377750.5790769513</v>
+        <v>378880.338814031</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1776,7 +1776,7 @@
         </is>
       </c>
       <c r="B95">
-        <v>214924.5114341183</v>
+        <v>215770.9826774782</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1791,7 +1791,7 @@
         </is>
       </c>
       <c r="B96">
-        <v>136873.408858595</v>
+        <v>138722.7258519897</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1806,7 +1806,7 @@
         </is>
       </c>
       <c r="B97">
-        <v>58789.22575221854</v>
+        <v>59949.91963264414</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="B98">
-        <v>891967.5929197745</v>
+        <v>918346.1972220731</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1836,7 +1836,7 @@
         </is>
       </c>
       <c r="B99">
-        <v>373052.5691191136</v>
+        <v>374211.3152537793</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1866,7 +1866,7 @@
         </is>
       </c>
       <c r="B101">
-        <v>76717.8987408557</v>
+        <v>77587.57771345916</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -1881,7 +1881,7 @@
         </is>
       </c>
       <c r="B102">
-        <v>52186.55707620388</v>
+        <v>52518.36487180789</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="B103">
-        <v>239031.4118692142</v>
+        <v>242773.3763342989</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -1926,7 +1926,7 @@
         </is>
       </c>
       <c r="B105">
-        <v>58077.02638230973</v>
+        <v>58127.80927477277</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         </is>
       </c>
       <c r="B107">
-        <v>44461.89940381138</v>
+        <v>45994.94794900449</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -1986,7 +1986,7 @@
         </is>
       </c>
       <c r="B109">
-        <v>32035.94516648633</v>
+        <v>32098.18893945856</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B110">
-        <v>217119.0977078179</v>
+        <v>217865.4534980743</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -2016,7 +2016,7 @@
         </is>
       </c>
       <c r="B111">
-        <v>553701.4528401007</v>
+        <v>554113.4184591289</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         </is>
       </c>
       <c r="B114">
-        <v>129168.3397832904</v>
+        <v>129237.3974511936</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -2106,7 +2106,7 @@
         </is>
       </c>
       <c r="B117">
-        <v>77628.32529811545</v>
+        <v>77997.04703493747</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -2136,7 +2136,7 @@
         </is>
       </c>
       <c r="B119">
-        <v>66187.79929460348</v>
+        <v>66857.81309023483</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -2151,7 +2151,7 @@
         </is>
       </c>
       <c r="B120">
-        <v>221546.8289570368</v>
+        <v>566269.6874401039</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -2181,7 +2181,7 @@
         </is>
       </c>
       <c r="B122">
-        <v>104491.3831910388</v>
+        <v>105463.107269501</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="B123">
-        <v>217919.0742039449</v>
+        <v>222078.6052197322</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         </is>
       </c>
       <c r="B124">
-        <v>53501.85418910466</v>
+        <v>53570.62097004901</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="B125">
-        <v>73474.44616015386</v>
+        <v>74021.60757997114</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -2241,7 +2241,7 @@
         </is>
       </c>
       <c r="B126">
-        <v>75666.19190272347</v>
+        <v>75723.3236724499</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         </is>
       </c>
       <c r="B127">
-        <v>5971993.634829012</v>
+        <v>6369029.931286051</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="B128">
-        <v>467791.612364541</v>
+        <v>472749.0994915814</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -2286,7 +2286,7 @@
         </is>
       </c>
       <c r="B129">
-        <v>51102.05512399179</v>
+        <v>51626.25705884708</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="B130">
-        <v>188850.7954543765</v>
+        <v>189197.574789399</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
         </is>
       </c>
       <c r="B132">
-        <v>51482.44510427377</v>
+        <v>51718.48718098594</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="B133">
-        <v>34535.30675325486</v>
+        <v>34603.90922708914</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="B135">
-        <v>393139.4182021628</v>
+        <v>394838.3204351278</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -2406,7 +2406,7 @@
         </is>
       </c>
       <c r="B137">
-        <v>228380.1735340393</v>
+        <v>229647.6348738923</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="B138">
-        <v>147235.9375707396</v>
+        <v>148045.4327580583</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -2436,7 +2436,7 @@
         </is>
       </c>
       <c r="B139">
-        <v>52231.37991589284</v>
+        <v>53133.60513530541</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2451,7 +2451,7 @@
         </is>
       </c>
       <c r="B140">
-        <v>938006.7230550308</v>
+        <v>962838.2969562102</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="B141">
-        <v>377792.1217434966</v>
+        <v>380411.731857312</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="B143">
-        <v>76289.62718617303</v>
+        <v>76587.01051358649</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -2511,7 +2511,7 @@
         </is>
       </c>
       <c r="B144">
-        <v>54509.01346870203</v>
+        <v>55430.91266599227</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         </is>
       </c>
       <c r="B145">
-        <v>235817.5018174105</v>
+        <v>241029.669543646</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -2586,7 +2586,7 @@
         </is>
       </c>
       <c r="B149">
-        <v>42610.57824471536</v>
+        <v>42756.81835614548</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -2601,7 +2601,7 @@
         </is>
       </c>
       <c r="B150">
-        <v>144614.4021399544</v>
+        <v>144702.7274827183</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         </is>
       </c>
       <c r="B151">
-        <v>44004.49193473978</v>
+        <v>44425.47285891172</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B152">
-        <v>241158.4762777093</v>
+        <v>241997.732562206</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="B153">
-        <v>556516.8719550178</v>
+        <v>556975.5759075726</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -2676,7 +2676,7 @@
         </is>
       </c>
       <c r="B155">
-        <v>369443.9045958525</v>
+        <v>369504.3739677266</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
         </is>
       </c>
       <c r="B156">
-        <v>137919.6215096785</v>
+        <v>138003.2811006967</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         </is>
       </c>
       <c r="B159">
-        <v>86582.6588885653</v>
+        <v>86710.95296084168</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         </is>
       </c>
       <c r="B161">
-        <v>64098.9037487735</v>
+        <v>64669.37682668283</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
@@ -2781,7 +2781,7 @@
         </is>
       </c>
       <c r="B162">
-        <v>236935.8551692679</v>
+        <v>564101.6471258177</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -2811,7 +2811,7 @@
         </is>
       </c>
       <c r="B164">
-        <v>88499.01524426835</v>
+        <v>91799.30726345834</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
@@ -2826,7 +2826,7 @@
         </is>
       </c>
       <c r="B165">
-        <v>262520.519517819</v>
+        <v>265129.496844945</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -2841,7 +2841,7 @@
         </is>
       </c>
       <c r="B166">
-        <v>49393.89397301782</v>
+        <v>49896.73977759824</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
@@ -2856,7 +2856,7 @@
         </is>
       </c>
       <c r="B167">
-        <v>77605.81821845345</v>
+        <v>78177.87411768295</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="B168">
-        <v>70164.91336506043</v>
+        <v>70661.92212914681</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
@@ -2886,7 +2886,7 @@
         </is>
       </c>
       <c r="B169">
-        <v>6135280.937714907</v>
+        <v>6517418.143407113</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
         </is>
       </c>
       <c r="B170">
-        <v>483641.7891525863</v>
+        <v>487084.4610902464</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -2916,7 +2916,7 @@
         </is>
       </c>
       <c r="B171">
-        <v>42826.86976072068</v>
+        <v>42937.37582988467</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -2931,7 +2931,7 @@
         </is>
       </c>
       <c r="B172">
-        <v>175338.8210840174</v>
+        <v>175755.3289933915</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         </is>
       </c>
       <c r="B174">
-        <v>62387.17666990597</v>
+        <v>62611.24453094738</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
@@ -3006,7 +3006,7 @@
         </is>
       </c>
       <c r="B177">
-        <v>370505.4588299362</v>
+        <v>371245.0839847899</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
         </is>
       </c>
       <c r="B179">
-        <v>267055.8157992858</v>
+        <v>267593.3836933298</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -3051,7 +3051,7 @@
         </is>
       </c>
       <c r="B180">
-        <v>160797.4179770621</v>
+        <v>161914.0390852512</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
@@ -3066,7 +3066,7 @@
         </is>
       </c>
       <c r="B181">
-        <v>59619.49527810914</v>
+        <v>60094.32383412593</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         </is>
       </c>
       <c r="B182">
-        <v>966190.3049249987</v>
+        <v>983722.4660669108</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="B183">
-        <v>369952.3572597502</v>
+        <v>372740.5384216371</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         </is>
       </c>
       <c r="B184">
-        <v>29211.33819746571</v>
+        <v>29243.98634933147</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         </is>
       </c>
       <c r="B185">
-        <v>88600.19700568952</v>
+        <v>88879.62278054675</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="B186">
-        <v>44147.45769693914</v>
+        <v>44705.5718810431</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         </is>
       </c>
       <c r="B187">
-        <v>262380.9150490492</v>
+        <v>268389.8587630308</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B189">
-        <v>57467.65010364536</v>
+        <v>58750.56023653638</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -3216,7 +3216,7 @@
         </is>
       </c>
       <c r="B191">
-        <v>42736.79206786754</v>
+        <v>43629.34977638158</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
@@ -3231,7 +3231,7 @@
         </is>
       </c>
       <c r="B192">
-        <v>148696.4378515046</v>
+        <v>148834.4894106076</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="B193">
-        <v>42572.16829263491</v>
+        <v>43024.3420003354</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
         </is>
       </c>
       <c r="B194">
-        <v>232206.5595159923</v>
+        <v>232432.8542151821</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -3276,7 +3276,7 @@
         </is>
       </c>
       <c r="B195">
-        <v>558551.3869262654</v>
+        <v>559164.1458776748</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
@@ -3291,7 +3291,7 @@
         </is>
       </c>
       <c r="B196">
-        <v>27732.76188349973</v>
+        <v>27945.76391964668</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         </is>
       </c>
       <c r="B201">
-        <v>81421.33620774494</v>
+        <v>81535.87278341119</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="B203">
-        <v>56237.13485077776</v>
+        <v>56682.69974484998</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         </is>
       </c>
       <c r="B204">
-        <v>243386.6051768805</v>
+        <v>565995.428875806</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -3441,7 +3441,7 @@
         </is>
       </c>
       <c r="B206">
-        <v>90578.05572429072</v>
+        <v>92056.098743557</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
@@ -3456,7 +3456,7 @@
         </is>
       </c>
       <c r="B207">
-        <v>247391.7643107906</v>
+        <v>250048.2105339352</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="B208">
-        <v>52421.03281485895</v>
+        <v>52663.73812844205</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
@@ -3486,7 +3486,7 @@
         </is>
       </c>
       <c r="B209">
-        <v>75207.19184164303</v>
+        <v>75754.51832790209</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
@@ -3501,7 +3501,7 @@
         </is>
       </c>
       <c r="B210">
-        <v>83849.59692166274</v>
+        <v>84574.41794352516</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
@@ -3516,7 +3516,7 @@
         </is>
       </c>
       <c r="B211">
-        <v>6220104.534108373</v>
+        <v>6587002.420755059</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
@@ -3531,7 +3531,7 @@
         </is>
       </c>
       <c r="B212">
-        <v>514365.8256980966</v>
+        <v>518241.6145856919</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
@@ -3561,7 +3561,7 @@
         </is>
       </c>
       <c r="B214">
-        <v>185465.9602803625</v>
+        <v>186384.0550768231</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         </is>
       </c>
       <c r="B216">
-        <v>70897.30792630574</v>
+        <v>71488.8170133291</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="B218">
-        <v>22308.93216263692</v>
+        <v>22586.39541444894</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -3636,7 +3636,7 @@
         </is>
       </c>
       <c r="B219">
-        <v>393897.6624017694</v>
+        <v>394886.998164919</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
@@ -3666,7 +3666,7 @@
         </is>
       </c>
       <c r="B221">
-        <v>297785.1847812198</v>
+        <v>299434.211892599</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
         </is>
       </c>
       <c r="B222">
-        <v>161497.5480018944</v>
+        <v>163557.0306517041</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="B223">
-        <v>60454.39815251288</v>
+        <v>60831.06915003226</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
@@ -3711,7 +3711,7 @@
         </is>
       </c>
       <c r="B224">
-        <v>1226955.276550095</v>
+        <v>1247260.408821316</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         </is>
       </c>
       <c r="B225">
-        <v>382473.7604940682</v>
+        <v>386696.6871424638</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         </is>
       </c>
       <c r="B227">
-        <v>93287.99212931213</v>
+        <v>93349.65525905218</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="B228">
-        <v>49152.29474868267</v>
+        <v>49823.85851163609</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -3786,7 +3786,7 @@
         </is>
       </c>
       <c r="B229">
-        <v>308023.6612689232</v>
+        <v>316067.6866438022</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -3831,7 +3831,7 @@
         </is>
       </c>
       <c r="B232">
-        <v>49721.82439302123</v>
+        <v>49942.79536529444</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="B233">
-        <v>48347.24249996889</v>
+        <v>49010.41384580009</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
@@ -3861,7 +3861,7 @@
         </is>
       </c>
       <c r="B234">
-        <v>151193.5758332753</v>
+        <v>151271.0917846775</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
@@ -3891,7 +3891,7 @@
         </is>
       </c>
       <c r="B236">
-        <v>237191.4170154958</v>
+        <v>238445.5134627476</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="B237">
-        <v>532223.1626797433</v>
+        <v>532345.2734040145</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
@@ -3936,7 +3936,7 @@
         </is>
       </c>
       <c r="B239">
-        <v>394032.558821696</v>
+        <v>394343.4810672071</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         </is>
       </c>
       <c r="B240">
-        <v>152064.0516502287</v>
+        <v>152250.7975550513</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -3981,7 +3981,7 @@
         </is>
       </c>
       <c r="B242">
-        <v>39373.49031083606</v>
+        <v>39522.95598691764</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="B243">
-        <v>67856.12602462084</v>
+        <v>68146.25549253156</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -4041,7 +4041,7 @@
         </is>
       </c>
       <c r="B246">
-        <v>60463.97659834522</v>
+        <v>60931.47098560118</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -4056,7 +4056,7 @@
         </is>
       </c>
       <c r="B247">
-        <v>157223.3451969068</v>
+        <v>486929.3822089314</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -4086,7 +4086,7 @@
         </is>
       </c>
       <c r="B249">
-        <v>30417.72559313298</v>
+        <v>30575.29712277462</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
@@ -4101,7 +4101,7 @@
         </is>
       </c>
       <c r="B250">
-        <v>271633.7882223855</v>
+        <v>273259.1748442887</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         </is>
       </c>
       <c r="B251">
-        <v>91661.5408443942</v>
+        <v>92239.12388101009</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
@@ -4131,7 +4131,7 @@
         </is>
       </c>
       <c r="B252">
-        <v>70463.5138823587</v>
+        <v>70637.72890887965</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="B253">
-        <v>71543.74867747856</v>
+        <v>71959.32976765028</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         </is>
       </c>
       <c r="B254">
-        <v>6691084.531837977</v>
+        <v>7071526.213009406</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -4176,7 +4176,7 @@
         </is>
       </c>
       <c r="B255">
-        <v>559171.6685848851</v>
+        <v>564602.3460929597</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         </is>
       </c>
       <c r="B257">
-        <v>168969.1391029299</v>
+        <v>169374.729385695</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
@@ -4236,7 +4236,7 @@
         </is>
       </c>
       <c r="B259">
-        <v>72030.81607969409</v>
+        <v>72463.18793455481</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -4266,7 +4266,7 @@
         </is>
       </c>
       <c r="B261">
-        <v>23101.40923818786</v>
+        <v>23208.56216703833</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         </is>
       </c>
       <c r="B262">
-        <v>347983.2183688924</v>
+        <v>348451.7523354331</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
@@ -4311,7 +4311,7 @@
         </is>
       </c>
       <c r="B264">
-        <v>279120.5879415415</v>
+        <v>279916.3590157294</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
@@ -4326,7 +4326,7 @@
         </is>
       </c>
       <c r="B265">
-        <v>172820.6714342589</v>
+        <v>173432.0044083695</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -4341,7 +4341,7 @@
         </is>
       </c>
       <c r="B266">
-        <v>42866.36159761806</v>
+        <v>43349.60683016943</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
@@ -4356,7 +4356,7 @@
         </is>
       </c>
       <c r="B267">
-        <v>1261986.591099546</v>
+        <v>1283568.076286888</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="B268">
-        <v>391616.9574791472</v>
+        <v>392638.8554940586</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         </is>
       </c>
       <c r="B271">
-        <v>50329.00159838847</v>
+        <v>50721.79504885169</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
@@ -4431,7 +4431,7 @@
         </is>
       </c>
       <c r="B272">
-        <v>304067.8028571462</v>
+        <v>308450.6354359853</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -4491,7 +4491,7 @@
         </is>
       </c>
       <c r="B276">
-        <v>50916.40965139254</v>
+        <v>51244.85004427117</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="B278">
-        <v>53994.03737425488</v>
+        <v>55407.31797346769</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
@@ -4536,7 +4536,7 @@
         </is>
       </c>
       <c r="B279">
-        <v>236132.3332969209</v>
+        <v>236685.4085256844</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
@@ -4551,7 +4551,7 @@
         </is>
       </c>
       <c r="B280">
-        <v>579736.3311111389</v>
+        <v>579843.1297419522</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
@@ -4581,7 +4581,7 @@
         </is>
       </c>
       <c r="B282">
-        <v>399871.9663956736</v>
+        <v>400087.2971637828</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="B283">
-        <v>147564.8455306278</v>
+        <v>148849.0561569744</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -4641,7 +4641,7 @@
         </is>
       </c>
       <c r="B286">
-        <v>82562.31261968194</v>
+        <v>85675.42145630617</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         </is>
       </c>
       <c r="B287">
-        <v>49696.85418835981</v>
+        <v>49859.12911984089</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="B288">
-        <v>71859.55235528816</v>
+        <v>71982.42867494824</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
@@ -4686,7 +4686,7 @@
         </is>
       </c>
       <c r="B289">
-        <v>50616.86618172035</v>
+        <v>50913.35606529286</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="B290">
-        <v>141073.7942439302</v>
+        <v>482424.3635971447</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         </is>
       </c>
       <c r="B292">
-        <v>37951.50287758351</v>
+        <v>37978.46141405011</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="B293">
-        <v>260047.5072895599</v>
+        <v>263318.5915425943</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
@@ -4761,7 +4761,7 @@
         </is>
       </c>
       <c r="B294">
-        <v>88513.16462984016</v>
+        <v>89638.89301795687</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
@@ -4776,7 +4776,7 @@
         </is>
       </c>
       <c r="B295">
-        <v>78344.17300801995</v>
+        <v>78802.01131023701</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         </is>
       </c>
       <c r="B296">
-        <v>73329.58089919481</v>
+        <v>73457.42208266887</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
@@ -4806,7 +4806,7 @@
         </is>
       </c>
       <c r="B297">
-        <v>6743932.68436712</v>
+        <v>7134002.275654603</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="B298">
-        <v>552577.5875968788</v>
+        <v>555139.3375429775</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
@@ -4851,7 +4851,7 @@
         </is>
       </c>
       <c r="B300">
-        <v>172213.9854656636</v>
+        <v>172427.5047729808</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         </is>
       </c>
       <c r="B302">
-        <v>87411.80956057535</v>
+        <v>88337.05443674733</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         </is>
       </c>
       <c r="B304">
-        <v>19525.98858622562</v>
+        <v>20093.14961717168</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
@@ -4926,7 +4926,7 @@
         </is>
       </c>
       <c r="B305">
-        <v>367351.9719228736</v>
+        <v>368395.22745418</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
@@ -4956,7 +4956,7 @@
         </is>
       </c>
       <c r="B307">
-        <v>262650.6669836368</v>
+        <v>263447.7949776858</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="B308">
-        <v>176069.257721796</v>
+        <v>177406.3202995045</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
@@ -4986,7 +4986,7 @@
         </is>
       </c>
       <c r="B309">
-        <v>50083.53566578106</v>
+        <v>50450.76579519491</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
@@ -5001,7 +5001,7 @@
         </is>
       </c>
       <c r="B310">
-        <v>1225034.675231229</v>
+        <v>1250854.014841866</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         </is>
       </c>
       <c r="B311">
-        <v>413130.7956498316</v>
+        <v>415804.6491257428</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
@@ -5061,7 +5061,7 @@
         </is>
       </c>
       <c r="B314">
-        <v>42673.52283467887</v>
+        <v>43553.10387429767</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         </is>
       </c>
       <c r="B315">
-        <v>329262.8367869072</v>
+        <v>335693.1420177307</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
@@ -5136,7 +5136,7 @@
         </is>
       </c>
       <c r="B319">
-        <v>57007.59742439956</v>
+        <v>57454.85382310304</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
@@ -5166,7 +5166,7 @@
         </is>
       </c>
       <c r="B321">
-        <v>71899.74080099583</v>
+        <v>72214.65394483632</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
@@ -5181,7 +5181,7 @@
         </is>
       </c>
       <c r="B322">
-        <v>266272.7333718002</v>
+        <v>267873.2247254009</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="B323">
-        <v>521180.2636695513</v>
+        <v>521485.7083248912</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
@@ -5226,7 +5226,7 @@
         </is>
       </c>
       <c r="B325">
-        <v>406499.4757732998</v>
+        <v>406633.1129222808</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
@@ -5241,7 +5241,7 @@
         </is>
       </c>
       <c r="B326">
-        <v>169576.8865611058</v>
+        <v>169601.1153954824</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         </is>
       </c>
       <c r="B329">
-        <v>95723.512448352</v>
+        <v>96069.47236729937</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         </is>
       </c>
       <c r="B330">
-        <v>52060.20798468623</v>
+        <v>52177.72248641985</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="B333">
-        <v>158635.3393393796</v>
+        <v>489586.0509930021</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
@@ -5391,7 +5391,7 @@
         </is>
       </c>
       <c r="B336">
-        <v>272291.2541709848</v>
+        <v>273517.822431727</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
@@ -5406,7 +5406,7 @@
         </is>
       </c>
       <c r="B337">
-        <v>87740.7981461858</v>
+        <v>88220.44218373402</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="B338">
-        <v>70770.22458110107</v>
+        <v>70863.36858959887</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
@@ -5436,7 +5436,7 @@
         </is>
       </c>
       <c r="B339">
-        <v>61273.60226194986</v>
+        <v>61598.62622824767</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
@@ -5451,7 +5451,7 @@
         </is>
       </c>
       <c r="B340">
-        <v>6885722.79890186</v>
+        <v>7265702.767534094</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
@@ -5466,7 +5466,7 @@
         </is>
       </c>
       <c r="B341">
-        <v>543498.2366661187</v>
+        <v>546195.3373287305</v>
       </c>
       <c r="C341" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="B343">
-        <v>162824.4020790938</v>
+        <v>162864.3287005207</v>
       </c>
       <c r="C343" t="inlineStr">
         <is>
@@ -5526,7 +5526,7 @@
         </is>
       </c>
       <c r="B345">
-        <v>56542.95313063599</v>
+        <v>57629.73464014933</v>
       </c>
       <c r="C345" t="inlineStr">
         <is>
@@ -5541,7 +5541,7 @@
         </is>
       </c>
       <c r="B346">
-        <v>51863.31906550755</v>
+        <v>51902.77040268511</v>
       </c>
       <c r="C346" t="inlineStr">
         <is>
@@ -5556,7 +5556,7 @@
         </is>
       </c>
       <c r="B347">
-        <v>19206.1527584898</v>
+        <v>19670.96573017852</v>
       </c>
       <c r="C347" t="inlineStr">
         <is>
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="B348">
-        <v>388710.5709118263</v>
+        <v>390627.0057568806</v>
       </c>
       <c r="C348" t="inlineStr">
         <is>
@@ -5601,7 +5601,7 @@
         </is>
       </c>
       <c r="B350">
-        <v>300912.8195298493</v>
+        <v>302243.4372187204</v>
       </c>
       <c r="C350" t="inlineStr">
         <is>
@@ -5616,7 +5616,7 @@
         </is>
       </c>
       <c r="B351">
-        <v>169926.5088757309</v>
+        <v>172008.5087577625</v>
       </c>
       <c r="C351" t="inlineStr">
         <is>
@@ -5631,7 +5631,7 @@
         </is>
       </c>
       <c r="B352">
-        <v>56997.75214176917</v>
+        <v>57132.70950883261</v>
       </c>
       <c r="C352" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="B353">
-        <v>1259937.724162036</v>
+        <v>1281543.978564566</v>
       </c>
       <c r="C353" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="B354">
-        <v>422875.0633523155</v>
+        <v>426282.3630483199</v>
       </c>
       <c r="C354" t="inlineStr">
         <is>
@@ -5706,7 +5706,7 @@
         </is>
       </c>
       <c r="B357">
-        <v>58988.58275487017</v>
+        <v>59125.00124626212</v>
       </c>
       <c r="C357" t="inlineStr">
         <is>
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="B358">
-        <v>359183.5180429663</v>
+        <v>367745.9269334835</v>
       </c>
       <c r="C358" t="inlineStr">
         <is>
@@ -5766,7 +5766,7 @@
         </is>
       </c>
       <c r="B361">
-        <v>65227.41775644463</v>
+        <v>65393.90933462216</v>
       </c>
       <c r="C361" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         </is>
       </c>
       <c r="B362">
-        <v>59351.59161600313</v>
+        <v>59793.81011392474</v>
       </c>
       <c r="C362" t="inlineStr">
         <is>
@@ -5811,7 +5811,7 @@
         </is>
       </c>
       <c r="B364">
-        <v>63349.49224283109</v>
+        <v>63598.00234876015</v>
       </c>
       <c r="C364" t="inlineStr">
         <is>
@@ -5826,7 +5826,7 @@
         </is>
       </c>
       <c r="B365">
-        <v>251255.4139355383</v>
+        <v>251423.3885354556</v>
       </c>
       <c r="C365" t="inlineStr">
         <is>
@@ -5841,7 +5841,7 @@
         </is>
       </c>
       <c r="B366">
-        <v>536647.7965746605</v>
+        <v>537735.9205970818</v>
       </c>
       <c r="C366" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="B368">
-        <v>420267.305976505</v>
+        <v>420575.0973209862</v>
       </c>
       <c r="C368" t="inlineStr">
         <is>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B369">
-        <v>172029.9598666631</v>
+        <v>172188.4304315273</v>
       </c>
       <c r="C369" t="inlineStr">
         <is>
@@ -5916,7 +5916,7 @@
         </is>
       </c>
       <c r="B371">
-        <v>41392.25997875194</v>
+        <v>41471.17073890285</v>
       </c>
       <c r="C371" t="inlineStr">
         <is>
@@ -5931,7 +5931,7 @@
         </is>
       </c>
       <c r="B372">
-        <v>98298.9021294085</v>
+        <v>98628.52673832583</v>
       </c>
       <c r="C372" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         </is>
       </c>
       <c r="B376">
-        <v>154445.495495601</v>
+        <v>475845.2084611545</v>
       </c>
       <c r="C376" t="inlineStr">
         <is>
@@ -6036,7 +6036,7 @@
         </is>
       </c>
       <c r="B379">
-        <v>275932.4047787859</v>
+        <v>280820.4307297024</v>
       </c>
       <c r="C379" t="inlineStr">
         <is>
@@ -6051,7 +6051,7 @@
         </is>
       </c>
       <c r="B380">
-        <v>73915.04998662825</v>
+        <v>74418.61624448968</v>
       </c>
       <c r="C380" t="inlineStr">
         <is>
@@ -6066,7 +6066,7 @@
         </is>
       </c>
       <c r="B381">
-        <v>68007.93299555113</v>
+        <v>68284.05534794962</v>
       </c>
       <c r="C381" t="inlineStr">
         <is>
@@ -6081,7 +6081,7 @@
         </is>
       </c>
       <c r="B382">
-        <v>71267.75610448157</v>
+        <v>71358.53280275407</v>
       </c>
       <c r="C382" t="inlineStr">
         <is>
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="B383">
-        <v>6971532.94020766</v>
+        <v>7345183.724881325</v>
       </c>
       <c r="C383" t="inlineStr">
         <is>
@@ -6107,11 +6107,11 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B384">
-        <v>41951.16241138388</v>
+        <v>575904.475921332</v>
       </c>
       <c r="C384" t="inlineStr">
         <is>
@@ -6122,11 +6122,11 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B385">
-        <v>159566.0226549224</v>
+        <v>42228.56540360238</v>
       </c>
       <c r="C385" t="inlineStr">
         <is>
@@ -6137,11 +6137,11 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B386">
-        <v>5835.963814441245</v>
+        <v>160890.6546502045</v>
       </c>
       <c r="C386" t="inlineStr">
         <is>
@@ -6152,11 +6152,11 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B387">
-        <v>60029.84768593955</v>
+        <v>5835.963814441245</v>
       </c>
       <c r="C387" t="inlineStr">
         <is>
@@ -6167,11 +6167,11 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B388">
-        <v>54710.86266851608</v>
+        <v>60029.84768593955</v>
       </c>
       <c r="C388" t="inlineStr">
         <is>
@@ -6182,11 +6182,11 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B389">
-        <v>26757.56662832698</v>
+        <v>54710.86266851608</v>
       </c>
       <c r="C389" t="inlineStr">
         <is>
@@ -6197,11 +6197,11 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B390">
-        <v>418244.9715517912</v>
+        <v>26757.56662832698</v>
       </c>
       <c r="C390" t="inlineStr">
         <is>
@@ -6212,11 +6212,11 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B391">
-        <v>67563.77369622856</v>
+        <v>419735.4310162873</v>
       </c>
       <c r="C391" t="inlineStr">
         <is>
@@ -6227,11 +6227,11 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B392">
-        <v>338328.4940776369</v>
+        <v>67563.77369622856</v>
       </c>
       <c r="C392" t="inlineStr">
         <is>
@@ -6242,11 +6242,11 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B393">
-        <v>141324.1485182276</v>
+        <v>340385.6063461144</v>
       </c>
       <c r="C393" t="inlineStr">
         <is>
@@ -6257,11 +6257,11 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B394">
-        <v>1338530.363091368</v>
+        <v>157266.6021424257</v>
       </c>
       <c r="C394" t="inlineStr">
         <is>
@@ -6272,11 +6272,11 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B395">
-        <v>417933.7123456113</v>
+        <v>55848.91210359113</v>
       </c>
       <c r="C395" t="inlineStr">
         <is>
@@ -6287,11 +6287,11 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B396">
-        <v>29761.28806278338</v>
+        <v>1358470.621201206</v>
       </c>
       <c r="C396" t="inlineStr">
         <is>
@@ -6302,11 +6302,11 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B397">
-        <v>107753.7368142816</v>
+        <v>419439.6909488563</v>
       </c>
       <c r="C397" t="inlineStr">
         <is>
@@ -6317,11 +6317,11 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B398">
-        <v>54021.08920113981</v>
+        <v>29761.28806278338</v>
       </c>
       <c r="C398" t="inlineStr">
         <is>
@@ -6332,11 +6332,11 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B399">
-        <v>374426.2108617473</v>
+        <v>107753.7368142816</v>
       </c>
       <c r="C399" t="inlineStr">
         <is>
@@ -6347,11 +6347,11 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B400">
-        <v>28766.80101982091</v>
+        <v>54342.4092887984</v>
       </c>
       <c r="C400" t="inlineStr">
         <is>
@@ -6362,11 +6362,11 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B401">
-        <v>45526.71614442611</v>
+        <v>378770.9745130387</v>
       </c>
       <c r="C401" t="inlineStr">
         <is>
@@ -6377,11 +6377,11 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B402">
-        <v>50226.5947339458</v>
+        <v>28766.80101982091</v>
       </c>
       <c r="C402" t="inlineStr">
         <is>
@@ -6392,11 +6392,11 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B403">
-        <v>168106.1100130048</v>
+        <v>45526.71614442611</v>
       </c>
       <c r="C403" t="inlineStr">
         <is>
@@ -6407,11 +6407,11 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B404">
-        <v>60930.26753737692</v>
+        <v>50339.12775900736</v>
       </c>
       <c r="C404" t="inlineStr">
         <is>
@@ -6422,11 +6422,11 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B405">
-        <v>282961.4903699566</v>
+        <v>51389.92355123566</v>
       </c>
       <c r="C405" t="inlineStr">
         <is>
@@ -6437,11 +6437,11 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B406">
-        <v>464514.2961972379</v>
+        <v>168106.1100130048</v>
       </c>
       <c r="C406" t="inlineStr">
         <is>
@@ -6452,11 +6452,11 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B407">
-        <v>30442.27558818972</v>
+        <v>60971.7977164492</v>
       </c>
       <c r="C407" t="inlineStr">
         <is>
@@ -6467,11 +6467,11 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B408">
-        <v>412655.0185299779</v>
+        <v>283678.8781233957</v>
       </c>
       <c r="C408" t="inlineStr">
         <is>
@@ -6482,11 +6482,11 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B409">
-        <v>187099.672146212</v>
+        <v>465681.5648635039</v>
       </c>
       <c r="C409" t="inlineStr">
         <is>
@@ -6497,11 +6497,11 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B410">
-        <v>20681.80756517268</v>
+        <v>30442.27558818972</v>
       </c>
       <c r="C410" t="inlineStr">
         <is>
@@ -6512,11 +6512,11 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>35</t>
         </is>
       </c>
       <c r="B411">
-        <v>63456.51809582075</v>
+        <v>412655.0185299779</v>
       </c>
       <c r="C411" t="inlineStr">
         <is>
@@ -6527,11 +6527,11 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="B412">
-        <v>89785.88684177308</v>
+        <v>187818.015586221</v>
       </c>
       <c r="C412" t="inlineStr">
         <is>
@@ -6542,11 +6542,11 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>37</t>
         </is>
       </c>
       <c r="B413">
-        <v>78679.64775073926</v>
+        <v>20681.80756517268</v>
       </c>
       <c r="C413" t="inlineStr">
         <is>
@@ -6557,11 +6557,11 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>38</t>
         </is>
       </c>
       <c r="B414">
-        <v>51605.50456051363</v>
+        <v>63456.51809582075</v>
       </c>
       <c r="C414" t="inlineStr">
         <is>
@@ -6572,11 +6572,11 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>39</t>
         </is>
       </c>
       <c r="B415">
-        <v>172969.5846734903</v>
+        <v>91284.91497531516</v>
       </c>
       <c r="C415" t="inlineStr">
         <is>
@@ -6587,11 +6587,11 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B416">
-        <v>1002.225371042404</v>
+        <v>64081.4044057608</v>
       </c>
       <c r="C416" t="inlineStr">
         <is>
@@ -6602,11 +6602,11 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>40</t>
         </is>
       </c>
       <c r="B417">
-        <v>275676.1128674283</v>
+        <v>78679.64775073926</v>
       </c>
       <c r="C417" t="inlineStr">
         <is>
@@ -6617,11 +6617,11 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>41</t>
         </is>
       </c>
       <c r="B418">
-        <v>84622.34030405454</v>
+        <v>51641.71476591197</v>
       </c>
       <c r="C418" t="inlineStr">
         <is>
@@ -6632,11 +6632,11 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>42</t>
         </is>
       </c>
       <c r="B419">
-        <v>68116.86487987547</v>
+        <v>484109.2266445097</v>
       </c>
       <c r="C419" t="inlineStr">
         <is>
@@ -6647,11 +6647,11 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>43</t>
         </is>
       </c>
       <c r="B420">
-        <v>79994.08085202212</v>
+        <v>1002.225371042404</v>
       </c>
       <c r="C420" t="inlineStr">
         <is>
@@ -6662,13 +6662,88 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B421">
+        <v>37192.21363066601</v>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B422">
+        <v>279561.8221322277</v>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B423">
+        <v>86187.73990855551</v>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B424">
+        <v>68456.57003860456</v>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B425">
+        <v>79994.08085202212</v>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B421">
-        <v>6354559.030126427</v>
-      </c>
-      <c r="C421" t="inlineStr">
+      <c r="B426">
+        <v>7507403.097937555</v>
+      </c>
+      <c r="C426" t="inlineStr">
         <is>
           <t>2019</t>
         </is>

--- a/output/data/totales_ene_99-19.xlsx
+++ b/output/data/totales_ene_99-19.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C426"/>
+  <dimension ref="A1:C341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,7 +360,7 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>ID2</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -396,7 +396,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>56748.59541135361</v>
+        <v>180250.4432833862</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -411,7 +411,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>167233.0689727387</v>
+        <v>53871.00322068064</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -426,7 +426,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>13017.37431064748</v>
+        <v>63976.65355656451</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -441,7 +441,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>53871.00322068064</v>
+        <v>585688.6349657989</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>44519.10383376129</v>
+        <v>131593.5333334028</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>19457.54972280322</v>
+        <v>952673.5019380937</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -482,11 +482,11 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B9">
-        <v>277142.5682675843</v>
+        <v>376617.1920480764</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -497,11 +497,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B10">
-        <v>60540.25133314363</v>
+        <v>66871.72099349748</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -512,11 +512,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B11">
-        <v>248005.8153650711</v>
+        <v>42307.28342267959</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -527,11 +527,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B12">
-        <v>131593.5333334028</v>
+        <v>60153.21903111339</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -542,11 +542,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B13">
-        <v>60153.21903111339</v>
+        <v>215620.5640173548</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -557,11 +557,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B14">
-        <v>952673.5019380937</v>
+        <v>24685.91337484955</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="B15">
-        <v>351254.4325064992</v>
+        <v>64209.65277889484</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="B16">
-        <v>25362.75954157719</v>
+        <v>42716.68949465481</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="B17">
-        <v>66871.72099349748</v>
+        <v>111622.8780721098</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -621,7 +621,7 @@
         </is>
       </c>
       <c r="B18">
-        <v>42307.28342267959</v>
+        <v>41530.34599404487</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="B19">
-        <v>215620.5640173548</v>
+        <v>724511.381080605</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="B20">
-        <v>24685.91337484955</v>
+        <v>27649.43978795628</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -666,7 +666,7 @@
         </is>
       </c>
       <c r="B21">
-        <v>64209.65277889484</v>
+        <v>295976.3067712261</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -681,7 +681,7 @@
         </is>
       </c>
       <c r="B22">
-        <v>42716.68949465481</v>
+        <v>108336.6248580009</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -711,7 +711,7 @@
         </is>
       </c>
       <c r="B24">
-        <v>111622.8780721098</v>
+        <v>30140.77463515658</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B25">
-        <v>41530.34599404487</v>
+        <v>79023.46784889806</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="B26">
-        <v>198406.5379590564</v>
+        <v>91689.69360888917</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="B27">
-        <v>526104.8431215485</v>
+        <v>552155.1801380722</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="B28">
-        <v>27649.43978795628</v>
+        <v>2574.58448395478</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B29">
-        <v>295976.3067712261</v>
+        <v>91356.58653191003</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -797,11 +797,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B30">
-        <v>108336.6248580009</v>
+        <v>213089.6106110816</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -812,11 +812,11 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B31">
-        <v>22480.78236817856</v>
+        <v>48237.89015555985</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -827,11 +827,11 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B32">
-        <v>7659.992266978018</v>
+        <v>83763.25904108831</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -842,11 +842,11 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B33">
-        <v>79023.46784889806</v>
+        <v>81400.32095331598</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -857,11 +857,11 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B34">
-        <v>21738.59573145163</v>
+        <v>56748.59541135361</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -872,11 +872,11 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B35">
-        <v>69951.09787743754</v>
+        <v>6096168.954503179</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -887,131 +887,131 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B36">
-        <v>552155.1801380722</v>
+        <v>525244.3516725927</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B37">
-        <v>2574.58448395478</v>
+        <v>179792.6352553128</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B38">
-        <v>91356.58653191003</v>
+        <v>55549.90536935566</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B39">
-        <v>213089.6106110816</v>
+        <v>54608.23290778473</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B40">
-        <v>48237.89015555985</v>
+        <v>604212.5971102751</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B41">
-        <v>83763.25904108831</v>
+        <v>132111.6333367605</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B42">
-        <v>81400.32095331598</v>
+        <v>939542.5803309886</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B43">
-        <v>6096168.954503179</v>
+        <v>357936.1270021047</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B44">
-        <v>525244.3516725927</v>
+        <v>77766.6185927788</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B45">
-        <v>61662.575262861</v>
+        <v>47615.8674022609</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1037,11 +1037,11 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B46">
-        <v>176245.1968628315</v>
+        <v>62589.41703355625</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1052,11 +1052,11 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B47">
-        <v>3547.438392481282</v>
+        <v>233969.8223490268</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1067,11 +1067,11 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B48">
-        <v>55549.90536935566</v>
+        <v>27933.91509059124</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1082,11 +1082,11 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B49">
-        <v>36305.85500352814</v>
+        <v>59953.89725882062</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1097,11 +1097,11 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B50">
-        <v>18302.37790425659</v>
+        <v>47834.96141722637</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1112,11 +1112,11 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B51">
-        <v>312796.9657207587</v>
+        <v>115235.0122054687</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -1127,11 +1127,11 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B52">
-        <v>64930.56733370342</v>
+        <v>36937.37860884018</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -1142,11 +1142,11 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B53">
-        <v>226485.064055813</v>
+        <v>832936.4177956149</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1157,11 +1157,11 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B54">
-        <v>132111.6333367605</v>
+        <v>41635.4328930312</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1172,11 +1172,11 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B55">
-        <v>62589.41703355625</v>
+        <v>301693.0884603203</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1187,11 +1187,11 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B56">
-        <v>939542.5803309886</v>
+        <v>111550.6408105734</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1202,11 +1202,11 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B57">
-        <v>327688.8776103538</v>
+        <v>42148.35074272179</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1217,11 +1217,11 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B58">
-        <v>30247.24939175091</v>
+        <v>25665.25457761025</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1232,11 +1232,11 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B59">
-        <v>77766.6185927788</v>
+        <v>71895.51595208432</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1247,11 +1247,11 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B60">
-        <v>47615.8674022609</v>
+        <v>94614.19841544059</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B61">
-        <v>233969.8223490268</v>
+        <v>601456.8947763192</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1277,11 +1277,11 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B62">
-        <v>27933.91509059124</v>
+        <v>2121.714470077975</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1292,11 +1292,11 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B63">
-        <v>59953.89725882062</v>
+        <v>101343.5099424662</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1307,11 +1307,11 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B64">
-        <v>47834.96141722637</v>
+        <v>205673.9647841896</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1322,11 +1322,11 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B65">
-        <v>42148.35074272179</v>
+        <v>58131.63930189571</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1337,11 +1337,11 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B66">
-        <v>115235.0122054687</v>
+        <v>85312.57124651807</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -1352,11 +1352,11 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B67">
-        <v>36937.37860884018</v>
+        <v>69770.34919846381</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -1367,11 +1367,11 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B68">
-        <v>222802.3241455153</v>
+        <v>61662.575262861</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -1382,11 +1382,11 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B69">
-        <v>610134.0936500996</v>
+        <v>6266447.071573933</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -1397,251 +1397,251 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B70">
-        <v>41635.4328930312</v>
+        <v>522633.700684369</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B71">
-        <v>301693.0884603203</v>
+        <v>198684.8069728915</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B72">
-        <v>111550.6408105734</v>
+        <v>56853.72674911882</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B73">
-        <v>20544.9115169442</v>
+        <v>61916.48486651449</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B74">
-        <v>5120.343060666048</v>
+        <v>659412.0932239651</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B75">
-        <v>71895.51595208432</v>
+        <v>138722.7258519897</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B76">
-        <v>27260.51765697441</v>
+        <v>918346.1972220731</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B77">
-        <v>67353.68075846619</v>
+        <v>404784.8484070434</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B78">
-        <v>601456.8947763192</v>
+        <v>77587.57771345916</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B79">
-        <v>2121.714470077975</v>
+        <v>52518.36487180789</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B80">
-        <v>101343.5099424662</v>
+        <v>59949.91963264414</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B81">
-        <v>205673.9647841896</v>
+        <v>242773.3763342989</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B82">
-        <v>58131.63930189571</v>
+        <v>33316.94410390183</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B83">
-        <v>85312.57124651807</v>
+        <v>58127.80927477277</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B84">
-        <v>69770.34919846381</v>
+        <v>43196.29026113687</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B85">
-        <v>6266447.071573933</v>
+        <v>132700.1662231013</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B86">
-        <v>522633.700684369</v>
+        <v>32098.18893945856</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1652,11 +1652,11 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B87">
-        <v>65326.8530603183</v>
+        <v>771978.8719572034</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1667,11 +1667,11 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B88">
-        <v>192979.3917406628</v>
+        <v>37474.72215132312</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1682,11 +1682,11 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B89">
-        <v>5705.415232228705</v>
+        <v>338778.7136666178</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1697,11 +1697,11 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B90">
-        <v>56853.72674911882</v>
+        <v>129237.3974511936</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1712,11 +1712,11 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B91">
-        <v>40685.98091403392</v>
+        <v>45994.94794900449</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1727,11 +1727,11 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B92">
-        <v>21230.50395248057</v>
+        <v>24412.04747975273</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B93">
-        <v>378880.338814031</v>
+        <v>77997.04703493747</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1757,11 +1757,11 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B94">
-        <v>64760.77173245606</v>
+        <v>85162.6169428812</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1772,11 +1772,11 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B95">
-        <v>215770.9826774782</v>
+        <v>566269.6874401039</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1787,11 +1787,11 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B96">
-        <v>138722.7258519897</v>
+        <v>1916.540108464908</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1802,11 +1802,11 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B97">
-        <v>59949.91963264414</v>
+        <v>105463.107269501</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1817,11 +1817,11 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B98">
-        <v>918346.1972220731</v>
+        <v>222078.6052197322</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -1832,11 +1832,11 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B99">
-        <v>374211.3152537793</v>
+        <v>53570.62097004901</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -1847,11 +1847,11 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B100">
-        <v>30573.53315326408</v>
+        <v>74021.60757997114</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -1862,11 +1862,11 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B101">
-        <v>77587.57771345916</v>
+        <v>75723.3236724499</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -1877,11 +1877,11 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B102">
-        <v>52518.36487180789</v>
+        <v>65326.8530603183</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -1892,11 +1892,11 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B103">
-        <v>242773.3763342989</v>
+        <v>6369029.931286051</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -1907,371 +1907,371 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B104">
-        <v>33316.94410390183</v>
+        <v>472749.0994915814</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B105">
-        <v>58127.80927477277</v>
+        <v>192356.0466724882</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B106">
-        <v>43196.29026113687</v>
+        <v>51718.48718098594</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B107">
-        <v>45994.94794900449</v>
+        <v>50085.69150931443</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B108">
-        <v>132700.1662231013</v>
+        <v>690665.904212588</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B109">
-        <v>32098.18893945856</v>
+        <v>148045.4327580583</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B110">
-        <v>217865.4534980743</v>
+        <v>962838.2969562102</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B111">
-        <v>554113.4184591289</v>
+        <v>407178.6937900556</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B112">
-        <v>37474.72215132312</v>
+        <v>76587.01051358649</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B113">
-        <v>338778.7136666178</v>
+        <v>55430.91266599227</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B114">
-        <v>129237.3974511936</v>
+        <v>53133.60513530541</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B115">
-        <v>17881.08957387401</v>
+        <v>241029.669543646</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B116">
-        <v>6530.957905878722</v>
+        <v>46145.48429465401</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B117">
-        <v>77997.04703493747</v>
+        <v>62095.96362682118</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B118">
-        <v>18304.80385264636</v>
+        <v>55381.42365981125</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B119">
-        <v>66857.81309023483</v>
+        <v>144702.7274827183</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B120">
-        <v>566269.6874401039</v>
+        <v>44425.47285891172</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B121">
-        <v>1916.540108464908</v>
+        <v>798973.3084697786</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B122">
-        <v>105463.107269501</v>
+        <v>40150.93950352917</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B123">
-        <v>222078.6052197322</v>
+        <v>369504.3739677266</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B124">
-        <v>53570.62097004901</v>
+        <v>138003.2811006967</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B125">
-        <v>74021.60757997114</v>
+        <v>42756.81835614548</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B126">
-        <v>75723.3236724499</v>
+        <v>22208.09253450109</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B127">
-        <v>6369029.931286051</v>
+        <v>86710.95296084168</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B128">
-        <v>472749.0994915814</v>
+        <v>89870.29994748092</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -2282,11 +2282,11 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B129">
-        <v>51626.25705884708</v>
+        <v>564101.6471258177</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -2297,11 +2297,11 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B130">
-        <v>189197.574789399</v>
+        <v>3276.909896187492</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -2312,11 +2312,11 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B131">
-        <v>3158.471883089176</v>
+        <v>91799.30726345834</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -2327,11 +2327,11 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B132">
-        <v>51718.48718098594</v>
+        <v>265129.496844945</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -2342,11 +2342,11 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B133">
-        <v>34603.90922708914</v>
+        <v>49896.73977759824</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -2357,11 +2357,11 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B134">
-        <v>15481.78228222529</v>
+        <v>78177.87411768295</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -2372,11 +2372,11 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B135">
-        <v>394838.3204351278</v>
+        <v>70661.92212914681</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -2387,11 +2387,11 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B136">
-        <v>66179.94890356787</v>
+        <v>51626.25705884708</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -2402,11 +2402,11 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B137">
-        <v>229647.6348738923</v>
+        <v>6517418.143407113</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -2417,491 +2417,491 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B138">
-        <v>148045.4327580583</v>
+        <v>487084.4610902464</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B139">
-        <v>53133.60513530541</v>
+        <v>181142.0704762714</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B140">
-        <v>962838.2969562102</v>
+        <v>62611.24453094738</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B141">
-        <v>380411.731857312</v>
+        <v>58332.82011881885</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B142">
-        <v>26766.96193274361</v>
+        <v>697755.7087505066</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B143">
-        <v>76587.01051358649</v>
+        <v>161914.0390852512</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B144">
-        <v>55430.91266599227</v>
+        <v>983722.4660669108</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B145">
-        <v>241029.669543646</v>
+        <v>401984.5247709686</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B146">
-        <v>46145.48429465401</v>
+        <v>88879.62278054675</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B147">
-        <v>62095.96362682118</v>
+        <v>44705.5718810431</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B148">
-        <v>55381.42365981125</v>
+        <v>60094.32383412593</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B149">
-        <v>42756.81835614548</v>
+        <v>268389.8587630308</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B150">
-        <v>144702.7274827183</v>
+        <v>32854.97364640915</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B151">
-        <v>44425.47285891172</v>
+        <v>58750.56023653638</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B152">
-        <v>241997.732562206</v>
+        <v>56506.89294092929</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B153">
-        <v>556975.5759075726</v>
+        <v>148834.4894106076</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B154">
-        <v>40150.93950352917</v>
+        <v>43024.3420003354</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B155">
-        <v>369504.3739677266</v>
+        <v>791597.0000928568</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B156">
-        <v>138003.2811006967</v>
+        <v>27945.76391964668</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B157">
-        <v>17087.07106037625</v>
+        <v>381455.2566421496</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B158">
-        <v>5121.021474124843</v>
+        <v>141437.7291282765</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B159">
-        <v>86710.95296084168</v>
+        <v>43629.34977638158</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B160">
-        <v>25200.92312079808</v>
+        <v>33802.90443357683</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B161">
-        <v>64669.37682668283</v>
+        <v>81535.87278341119</v>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B162">
-        <v>564101.6471258177</v>
+        <v>83946.69275549012</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B163">
-        <v>3276.909896187492</v>
+        <v>565995.428875806</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B164">
-        <v>91799.30726345834</v>
+        <v>1034.092456731289</v>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B165">
-        <v>265129.496844945</v>
+        <v>92056.098743557</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B166">
-        <v>49896.73977759824</v>
+        <v>250048.2105339352</v>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B167">
-        <v>78177.87411768295</v>
+        <v>52663.73812844205</v>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B168">
-        <v>70661.92212914681</v>
+        <v>75754.51832790209</v>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B169">
-        <v>6517418.143407113</v>
+        <v>84574.41794352516</v>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B170">
-        <v>487084.4610902464</v>
+        <v>42937.37582988467</v>
       </c>
       <c r="C170" t="inlineStr">
         <is>
@@ -2912,11 +2912,11 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B171">
-        <v>42937.37582988467</v>
+        <v>6587002.420755059</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -2927,3823 +2927,2548 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B172">
-        <v>175755.3289933915</v>
+        <v>518241.6145856919</v>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B173">
-        <v>5386.741482879895</v>
+        <v>193562.0778044006</v>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B174">
-        <v>62611.24453094738</v>
+        <v>71488.8170133291</v>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B175">
-        <v>40815.27749194542</v>
+        <v>68679.7031644385</v>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B176">
-        <v>17517.54262687343</v>
+        <v>764435.5733416922</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B177">
-        <v>371245.0839847899</v>
+        <v>163557.0306517041</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B178">
-        <v>58917.24107238694</v>
+        <v>1247260.408821316</v>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B179">
-        <v>267593.3836933298</v>
+        <v>419522.2054701181</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B180">
-        <v>161914.0390852512</v>
+        <v>93349.65525905218</v>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B181">
-        <v>60094.32383412593</v>
+        <v>49823.85851163609</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B182">
-        <v>983722.4660669108</v>
+        <v>60831.06915003226</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B183">
-        <v>372740.5384216371</v>
+        <v>316067.6866438022</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B184">
-        <v>29243.98634933147</v>
+        <v>25906.73299155701</v>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B185">
-        <v>88879.62278054675</v>
+        <v>45121.92094419232</v>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B186">
-        <v>44705.5718810431</v>
+        <v>49942.79536529444</v>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B187">
-        <v>268389.8587630308</v>
+        <v>151271.0917846775</v>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B188">
-        <v>32854.97364640915</v>
+        <v>55356.50355677226</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B189">
-        <v>58750.56023653638</v>
+        <v>770790.7868667622</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B190">
-        <v>56506.89294092929</v>
+        <v>26425.84435513741</v>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B191">
-        <v>43629.34977638158</v>
+        <v>394343.4810672071</v>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B192">
-        <v>148834.4894106076</v>
+        <v>152250.7975550513</v>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B193">
-        <v>43024.3420003354</v>
+        <v>49010.41384580009</v>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B194">
-        <v>232432.8542151821</v>
+        <v>60846.80057071164</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B195">
-        <v>559164.1458776748</v>
+        <v>68146.25549253156</v>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B196">
-        <v>27945.76391964668</v>
+        <v>113488.7603715917</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B197">
-        <v>381455.2566421496</v>
+        <v>486929.3822089314</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B198">
-        <v>141437.7291282765</v>
+        <v>2422.251365622006</v>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B199">
-        <v>21235.63777229008</v>
+        <v>91309.2102555016</v>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B200">
-        <v>12567.26666128676</v>
+        <v>273259.1748442887</v>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B201">
-        <v>81535.87278341119</v>
+        <v>92239.12388101009</v>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B202">
-        <v>27263.99301064014</v>
+        <v>70637.72890887965</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B203">
-        <v>56682.69974484998</v>
+        <v>71959.32976765028</v>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B204">
-        <v>565995.428875806</v>
+        <v>53048.12659302158</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B205">
-        <v>1034.092456731289</v>
+        <v>7071526.213009406</v>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B206">
-        <v>92056.098743557</v>
+        <v>564602.3460929597</v>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B207">
-        <v>250048.2105339352</v>
+        <v>174687.6570953903</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B208">
-        <v>52663.73812844205</v>
+        <v>72463.18793455481</v>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B209">
-        <v>75754.51832790209</v>
+        <v>75132.9041007216</v>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B210">
-        <v>84574.41794352516</v>
+        <v>702629.9839263401</v>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B211">
-        <v>6587002.420755059</v>
+        <v>173432.0044083695</v>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B212">
-        <v>518241.6145856919</v>
+        <v>1283568.076286888</v>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B213">
-        <v>53048.12659302158</v>
+        <v>424073.5227939708</v>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B214">
-        <v>186384.0550768231</v>
+        <v>94889.44520643557</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B215">
-        <v>7178.022727577554</v>
+        <v>50721.79504885169</v>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B216">
-        <v>71488.8170133291</v>
+        <v>43349.60683016943</v>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B217">
-        <v>46093.30774998954</v>
+        <v>308450.6354359853</v>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B218">
-        <v>22586.39541444894</v>
+        <v>24125.5466566691</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B219">
-        <v>394886.998164919</v>
+        <v>47323.86265449746</v>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B220">
-        <v>70114.36328417418</v>
+        <v>49784.87576134257</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B221">
-        <v>299434.211892599</v>
+        <v>137258.9869761654</v>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B222">
-        <v>163557.0306517041</v>
+        <v>55407.31797346769</v>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B223">
-        <v>60831.06915003226</v>
+        <v>816528.5382676366</v>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B224">
-        <v>1247260.408821316</v>
+        <v>32590.95691039693</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B225">
-        <v>386696.6871424638</v>
+        <v>400087.2971637828</v>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B226">
-        <v>32825.51832765435</v>
+        <v>148849.0561569744</v>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B227">
-        <v>93349.65525905218</v>
+        <v>51244.85004427117</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B228">
-        <v>49823.85851163609</v>
+        <v>66329.75427551314</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B229">
-        <v>316067.6866438022</v>
+        <v>85675.42145630617</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B230">
-        <v>25906.73299155701</v>
+        <v>122895.7847402411</v>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B231">
-        <v>45121.92094419232</v>
+        <v>482424.3635971447</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B232">
-        <v>49942.79536529444</v>
+        <v>1083.007952034158</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B233">
-        <v>49010.41384580009</v>
+        <v>87837.59053389099</v>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B234">
-        <v>151271.0917846775</v>
+        <v>263318.5915425943</v>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B235">
-        <v>55356.50355677226</v>
+        <v>89638.89301795687</v>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B236">
-        <v>238445.5134627476</v>
+        <v>78802.01131023701</v>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B237">
-        <v>532345.2734040145</v>
+        <v>73457.42208266887</v>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B238">
-        <v>26425.84435513741</v>
+        <v>51336.98142017439</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B239">
-        <v>394343.4810672071</v>
+        <v>7134002.275654603</v>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B240">
-        <v>152250.7975550513</v>
+        <v>555139.3375429775</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B241">
-        <v>21323.844583794</v>
+        <v>181247.056160305</v>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B242">
-        <v>39522.95598691764</v>
+        <v>88337.05443674733</v>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B243">
-        <v>68146.25549253156</v>
+        <v>68684.90016989813</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B244">
-        <v>60733.91313272699</v>
+        <v>698337.6064379147</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B245">
-        <v>52557.28938599052</v>
+        <v>177406.3202995045</v>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B246">
-        <v>60931.47098560118</v>
+        <v>1250854.014841866</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B247">
-        <v>486929.3822089314</v>
+        <v>448229.6885772254</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B248">
-        <v>2422.251365622006</v>
+        <v>100173.4670590083</v>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B249">
-        <v>30575.29712277462</v>
+        <v>43553.10387429767</v>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B250">
-        <v>273259.1748442887</v>
+        <v>50450.76579519491</v>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B251">
-        <v>92239.12388101009</v>
+        <v>335693.1420177307</v>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B252">
-        <v>70637.72890887965</v>
+        <v>28099.27904924101</v>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B253">
-        <v>71959.32976765028</v>
+        <v>44243.68982660547</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B254">
-        <v>7071526.213009406</v>
+        <v>67292.45490040317</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B255">
-        <v>564602.3460929597</v>
+        <v>142719.9832990345</v>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B256">
-        <v>51336.98142017439</v>
+        <v>72214.65394483632</v>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B257">
-        <v>169374.729385695</v>
+        <v>789358.9330502921</v>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B258">
-        <v>5312.927709695223</v>
+        <v>28684.17498998103</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B259">
-        <v>72463.18793455481</v>
+        <v>406633.1129222808</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B260">
-        <v>51924.34193368327</v>
+        <v>169601.1153954824</v>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B261">
-        <v>23208.56216703833</v>
+        <v>57454.85382310304</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B262">
-        <v>348451.7523354331</v>
+        <v>60234.66009320886</v>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B263">
-        <v>74261.87257517769</v>
+        <v>96069.47236729937</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B264">
-        <v>279916.3590157294</v>
+        <v>144561.5635552903</v>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B265">
-        <v>173432.0044083695</v>
+        <v>489586.0509930021</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B266">
-        <v>43349.60683016943</v>
+        <v>4369.181973960196</v>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B267">
-        <v>1283568.076286888</v>
+        <v>96748.22836721422</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B268">
-        <v>392638.8554940586</v>
+        <v>273517.822431727</v>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B269">
-        <v>31434.66729991214</v>
+        <v>88220.44218373402</v>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B270">
-        <v>94889.44520643557</v>
+        <v>70863.36858959887</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B271">
-        <v>50721.79504885169</v>
+        <v>61598.62622824767</v>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B272">
-        <v>308450.6354359853</v>
+        <v>75524.64233688069</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B273">
-        <v>24125.5466566691</v>
+        <v>7265702.767534094</v>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B274">
-        <v>47323.86265449746</v>
+        <v>546195.3373287305</v>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B275">
-        <v>49784.87576134257</v>
+        <v>168192.1394754497</v>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B276">
-        <v>51244.85004427117</v>
+        <v>57629.73464014933</v>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B277">
-        <v>137258.9869761654</v>
+        <v>71573.73613286363</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B278">
-        <v>55407.31797346769</v>
+        <v>757374.406268931</v>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B279">
-        <v>236685.4085256844</v>
+        <v>172008.5087577625</v>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B280">
-        <v>579843.1297419522</v>
+        <v>1281543.978564566</v>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B281">
-        <v>32590.95691039693</v>
+        <v>455468.5840419261</v>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B282">
-        <v>400087.2971637828</v>
+        <v>109977.4976232344</v>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B283">
-        <v>148849.0561569744</v>
+        <v>59125.00124626212</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B284">
-        <v>22364.47053231114</v>
+        <v>57132.70950883261</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B285">
-        <v>43965.283743202</v>
+        <v>367745.9269334835</v>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B286">
-        <v>85675.42145630617</v>
+        <v>36319.12489311855</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B287">
-        <v>49859.12911984089</v>
+        <v>47133.01317885661</v>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B288">
-        <v>71982.42867494824</v>
+        <v>65393.90933462216</v>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B289">
-        <v>50913.35606529286</v>
+        <v>139861.1704721237</v>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B290">
-        <v>482424.3635971447</v>
+        <v>63598.00234876015</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B291">
-        <v>1083.007952034158</v>
+        <v>789159.3091325373</v>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B292">
-        <v>37978.46141405011</v>
+        <v>16634.8457579831</v>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B293">
-        <v>263318.5915425943</v>
+        <v>420575.0973209862</v>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B294">
-        <v>89638.89301795687</v>
+        <v>172188.4304315273</v>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B295">
-        <v>78802.01131023701</v>
+        <v>59793.81011392474</v>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B296">
-        <v>73457.42208266887</v>
+        <v>66197.45037770165</v>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B297">
-        <v>7134002.275654603</v>
+        <v>98628.52673832583</v>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B298">
-        <v>555139.3375429775</v>
+        <v>131720.7928364059</v>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B299">
-        <v>75524.64233688069</v>
+        <v>475845.2084611545</v>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B300">
-        <v>172427.5047729808</v>
+        <v>1110.94803144716</v>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B301">
-        <v>8819.551387324236</v>
+        <v>92417.15993391896</v>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B302">
-        <v>88337.05443674733</v>
+        <v>280820.4307297024</v>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B303">
-        <v>48591.75055272646</v>
+        <v>74418.61624448968</v>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B304">
-        <v>20093.14961717168</v>
+        <v>68284.05534794962</v>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B305">
-        <v>368395.22745418</v>
+        <v>71358.53280275407</v>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B306">
-        <v>66494.58400604884</v>
+        <v>69757.72987084417</v>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B307">
-        <v>263447.7949776858</v>
+        <v>7345183.724881325</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B308">
-        <v>177406.3202995045</v>
+        <v>575904.475921332</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="B309">
-        <v>50450.76579519491</v>
+        <v>166726.6184646458</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B310">
-        <v>1250854.014841866</v>
+        <v>60029.84768593955</v>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B311">
-        <v>415804.6491257428</v>
+        <v>81468.42929684307</v>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B312">
-        <v>32425.03945148257</v>
+        <v>827684.8110586302</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B313">
-        <v>100173.4670590083</v>
+        <v>157266.6021424257</v>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B314">
-        <v>43553.10387429767</v>
+        <v>1358470.621201206</v>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B315">
-        <v>335693.1420177307</v>
+        <v>449200.9790116397</v>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>18</t>
         </is>
       </c>
       <c r="B316">
-        <v>28099.27904924101</v>
+        <v>107753.7368142816</v>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>19</t>
         </is>
       </c>
       <c r="B317">
-        <v>44243.68982660547</v>
+        <v>54342.4092887984</v>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B318">
-        <v>67292.45490040317</v>
+        <v>55848.91210359113</v>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>20</t>
         </is>
       </c>
       <c r="B319">
-        <v>57454.85382310304</v>
+        <v>378770.9745130387</v>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>21</t>
         </is>
       </c>
       <c r="B320">
-        <v>142719.9832990345</v>
+        <v>28766.80101982091</v>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>22</t>
         </is>
       </c>
       <c r="B321">
-        <v>72214.65394483632</v>
+        <v>45526.71614442611</v>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>23</t>
         </is>
       </c>
       <c r="B322">
-        <v>267873.2247254009</v>
+        <v>50339.12775900736</v>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>24</t>
         </is>
       </c>
       <c r="B323">
-        <v>521485.7083248912</v>
+        <v>168106.1100130048</v>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>25</t>
         </is>
       </c>
       <c r="B324">
-        <v>28684.17498998103</v>
+        <v>60971.7977164492</v>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>26</t>
         </is>
       </c>
       <c r="B325">
-        <v>406633.1129222808</v>
+        <v>749360.4429868996</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>27</t>
         </is>
       </c>
       <c r="B326">
-        <v>169601.1153954824</v>
+        <v>30442.27558818972</v>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>28</t>
         </is>
       </c>
       <c r="B327">
-        <v>18958.43585955341</v>
+        <v>412655.0185299779</v>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>29</t>
         </is>
       </c>
       <c r="B328">
-        <v>41276.22423365545</v>
+        <v>187818.015586221</v>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B329">
-        <v>96069.47236729937</v>
+        <v>51389.92355123566</v>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>30</t>
         </is>
       </c>
       <c r="B330">
-        <v>52177.72248641985</v>
+        <v>84138.32566099342</v>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>31</t>
         </is>
       </c>
       <c r="B331">
-        <v>89635.24153612212</v>
+        <v>91284.91497531516</v>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>32</t>
         </is>
       </c>
       <c r="B332">
-        <v>54926.32201916815</v>
+        <v>130321.3625166512</v>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>33</t>
         </is>
       </c>
       <c r="B333">
-        <v>489586.0509930021</v>
+        <v>484109.2266445097</v>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>43</t>
+          <t>34</t>
         </is>
       </c>
       <c r="B334">
-        <v>4369.181973960196</v>
+        <v>1002.225371042404</v>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B335">
-        <v>44570.50588079438</v>
+        <v>101273.6180364268</v>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B336">
-        <v>273517.822431727</v>
+        <v>279561.8221322277</v>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B337">
-        <v>88220.44218373402</v>
+        <v>86187.73990855551</v>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B338">
-        <v>70863.36858959887</v>
+        <v>68456.57003860456</v>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B339">
-        <v>61598.62622824767</v>
+        <v>79994.08085202212</v>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B340">
-        <v>7265702.767534094</v>
+        <v>42228.56540360238</v>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B341">
-        <v>546195.3373287305</v>
+        <v>7507403.097937555</v>
       </c>
       <c r="C341" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B342">
-        <v>69757.72987084417</v>
-      </c>
-      <c r="C342" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B343">
-        <v>162864.3287005207</v>
-      </c>
-      <c r="C343" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B344">
-        <v>5327.810774928966</v>
-      </c>
-      <c r="C344" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="B345">
-        <v>57629.73464014933</v>
-      </c>
-      <c r="C345" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="B346">
-        <v>51902.77040268511</v>
-      </c>
-      <c r="C346" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="B347">
-        <v>19670.96573017852</v>
-      </c>
-      <c r="C347" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B348">
-        <v>390627.0057568806</v>
-      </c>
-      <c r="C348" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="B349">
-        <v>64503.96329332999</v>
-      </c>
-      <c r="C349" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B350">
-        <v>302243.4372187204</v>
-      </c>
-      <c r="C350" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="B351">
-        <v>172008.5087577625</v>
-      </c>
-      <c r="C351" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B352">
-        <v>57132.70950883261</v>
-      </c>
-      <c r="C352" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="B353">
-        <v>1281543.978564566</v>
-      </c>
-      <c r="C353" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B354">
-        <v>426282.3630483199</v>
-      </c>
-      <c r="C354" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B355">
-        <v>29186.22099360622</v>
-      </c>
-      <c r="C355" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B356">
-        <v>109977.4976232344</v>
-      </c>
-      <c r="C356" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B357">
-        <v>59125.00124626212</v>
-      </c>
-      <c r="C357" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="B358">
-        <v>367745.9269334835</v>
-      </c>
-      <c r="C358" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="B359">
-        <v>36319.12489311855</v>
-      </c>
-      <c r="C359" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="B360">
-        <v>47133.01317885661</v>
-      </c>
-      <c r="C360" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="B361">
-        <v>65393.90933462216</v>
-      </c>
-      <c r="C361" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B362">
-        <v>59793.81011392474</v>
-      </c>
-      <c r="C362" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B363">
-        <v>139861.1704721237</v>
-      </c>
-      <c r="C363" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="B364">
-        <v>63598.00234876015</v>
-      </c>
-      <c r="C364" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="B365">
-        <v>251423.3885354556</v>
-      </c>
-      <c r="C365" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="B366">
-        <v>537735.9205970818</v>
-      </c>
-      <c r="C366" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="B367">
-        <v>16634.8457579831</v>
-      </c>
-      <c r="C367" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="B368">
-        <v>420575.0973209862</v>
-      </c>
-      <c r="C368" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="B369">
-        <v>172188.4304315273</v>
-      </c>
-      <c r="C369" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="B370">
-        <v>24726.27963879881</v>
-      </c>
-      <c r="C370" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="B371">
-        <v>41471.17073890285</v>
-      </c>
-      <c r="C371" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="B372">
-        <v>98628.52673832583</v>
-      </c>
-      <c r="C372" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B373">
-        <v>49333.1249101838</v>
-      </c>
-      <c r="C373" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B374">
-        <v>78301.50536221749</v>
-      </c>
-      <c r="C374" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="B375">
-        <v>53419.28747418844</v>
-      </c>
-      <c r="C375" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="B376">
-        <v>475845.2084611545</v>
-      </c>
-      <c r="C376" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="B377">
-        <v>1110.94803144716</v>
-      </c>
-      <c r="C377" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B378">
-        <v>43084.03502373515</v>
-      </c>
-      <c r="C378" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B379">
-        <v>280820.4307297024</v>
-      </c>
-      <c r="C379" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B380">
-        <v>74418.61624448968</v>
-      </c>
-      <c r="C380" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B381">
-        <v>68284.05534794962</v>
-      </c>
-      <c r="C381" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B382">
-        <v>71358.53280275407</v>
-      </c>
-      <c r="C382" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B383">
-        <v>7345183.724881325</v>
-      </c>
-      <c r="C383" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B384">
-        <v>575904.475921332</v>
-      </c>
-      <c r="C384" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B385">
-        <v>42228.56540360238</v>
-      </c>
-      <c r="C385" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B386">
-        <v>160890.6546502045</v>
-      </c>
-      <c r="C386" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B387">
-        <v>5835.963814441245</v>
-      </c>
-      <c r="C387" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="B388">
-        <v>60029.84768593955</v>
-      </c>
-      <c r="C388" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="B389">
-        <v>54710.86266851608</v>
-      </c>
-      <c r="C389" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="B390">
-        <v>26757.56662832698</v>
-      </c>
-      <c r="C390" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B391">
-        <v>419735.4310162873</v>
-      </c>
-      <c r="C391" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="B392">
-        <v>67563.77369622856</v>
-      </c>
-      <c r="C392" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B393">
-        <v>340385.6063461144</v>
-      </c>
-      <c r="C393" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="B394">
-        <v>157266.6021424257</v>
-      </c>
-      <c r="C394" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B395">
-        <v>55848.91210359113</v>
-      </c>
-      <c r="C395" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="B396">
-        <v>1358470.621201206</v>
-      </c>
-      <c r="C396" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="B397">
-        <v>419439.6909488563</v>
-      </c>
-      <c r="C397" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="B398">
-        <v>29761.28806278338</v>
-      </c>
-      <c r="C398" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="B399">
-        <v>107753.7368142816</v>
-      </c>
-      <c r="C399" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="B400">
-        <v>54342.4092887984</v>
-      </c>
-      <c r="C400" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="B401">
-        <v>378770.9745130387</v>
-      </c>
-      <c r="C401" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="B402">
-        <v>28766.80101982091</v>
-      </c>
-      <c r="C402" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="B403">
-        <v>45526.71614442611</v>
-      </c>
-      <c r="C403" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="B404">
-        <v>50339.12775900736</v>
-      </c>
-      <c r="C404" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B405">
-        <v>51389.92355123566</v>
-      </c>
-      <c r="C405" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B406">
-        <v>168106.1100130048</v>
-      </c>
-      <c r="C406" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="B407">
-        <v>60971.7977164492</v>
-      </c>
-      <c r="C407" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="B408">
-        <v>283678.8781233957</v>
-      </c>
-      <c r="C408" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="B409">
-        <v>465681.5648635039</v>
-      </c>
-      <c r="C409" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="B410">
-        <v>30442.27558818972</v>
-      </c>
-      <c r="C410" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="B411">
-        <v>412655.0185299779</v>
-      </c>
-      <c r="C411" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="B412">
-        <v>187818.015586221</v>
-      </c>
-      <c r="C412" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="B413">
-        <v>20681.80756517268</v>
-      </c>
-      <c r="C413" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="B414">
-        <v>63456.51809582075</v>
-      </c>
-      <c r="C414" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="B415">
-        <v>91284.91497531516</v>
-      </c>
-      <c r="C415" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B416">
-        <v>64081.4044057608</v>
-      </c>
-      <c r="C416" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B417">
-        <v>78679.64775073926</v>
-      </c>
-      <c r="C417" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="B418">
-        <v>51641.71476591197</v>
-      </c>
-      <c r="C418" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="B419">
-        <v>484109.2266445097</v>
-      </c>
-      <c r="C419" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="B420">
-        <v>1002.225371042404</v>
-      </c>
-      <c r="C420" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B421">
-        <v>37192.21363066601</v>
-      </c>
-      <c r="C421" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="B422">
-        <v>279561.8221322277</v>
-      </c>
-      <c r="C422" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="B423">
-        <v>86187.73990855551</v>
-      </c>
-      <c r="C423" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="B424">
-        <v>68456.57003860456</v>
-      </c>
-      <c r="C424" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="B425">
-        <v>79994.08085202212</v>
-      </c>
-      <c r="C425" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B426">
-        <v>7507403.097937555</v>
-      </c>
-      <c r="C426" t="inlineStr">
         <is>
           <t>2019</t>
         </is>

--- a/output/data/totales_ene_99-19.xlsx
+++ b/output/data/totales_ene_99-19.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C161"/>
+  <dimension ref="A1:C171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="B16">
-        <v>646419.4582309162</v>
+        <v>643844.8737469614</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -602,11 +602,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B17">
-        <v>6096168.954503179</v>
+        <v>2574.58448395478</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -617,26 +617,26 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18">
-        <v>629982.1194488708</v>
+        <v>6096168.954503179</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2010</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B19">
-        <v>101343.5099424662</v>
+        <v>629982.1194488708</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -647,11 +647,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B20">
-        <v>715893.6404185967</v>
+        <v>101343.5099424662</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -662,11 +662,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B21">
-        <v>54608.23290778473</v>
+        <v>715893.6404185967</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -677,11 +677,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B22">
-        <v>604212.5971102751</v>
+        <v>54608.23290778473</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -692,11 +692,11 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B23">
-        <v>1071654.213667749</v>
+        <v>604212.5971102751</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -707,11 +707,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B24">
-        <v>571425.5193615217</v>
+        <v>1071654.213667749</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -722,11 +722,11 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B25">
-        <v>281585.6897512877</v>
+        <v>571425.5193615217</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -737,11 +737,11 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B26">
-        <v>115235.0122054687</v>
+        <v>281585.6897512877</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -752,11 +752,11 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B27">
-        <v>869873.7964044551</v>
+        <v>115235.0122054687</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -767,11 +767,11 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B28">
-        <v>41635.4328930312</v>
+        <v>869873.7964044551</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>O</t>
         </is>
       </c>
       <c r="B29">
-        <v>301693.0884603203</v>
+        <v>41635.4328930312</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -797,11 +797,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>P</t>
         </is>
       </c>
       <c r="B30">
-        <v>137215.8953881836</v>
+        <v>301693.0884603203</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -812,11 +812,11 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="B31">
-        <v>71895.51595208432</v>
+        <v>137215.8953881836</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -827,11 +827,11 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B32">
-        <v>698192.8076618378</v>
+        <v>71895.51595208432</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -842,11 +842,11 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>S</t>
         </is>
       </c>
       <c r="B33">
-        <v>6266447.071573933</v>
+        <v>696071.0931917598</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -857,41 +857,41 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B34">
-        <v>628578.5682660176</v>
+        <v>2121.714470077975</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B35">
-        <v>105463.107269501</v>
+        <v>6266447.071573933</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B36">
-        <v>746259.5442245309</v>
+        <v>628578.5682660176</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -902,11 +902,11 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B37">
-        <v>61916.48486651449</v>
+        <v>105463.107269501</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -917,11 +917,11 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B38">
-        <v>659412.0932239653</v>
+        <v>746259.5442245309</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -932,11 +932,11 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B39">
-        <v>1057068.923074063</v>
+        <v>61916.48486651449</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -947,11 +947,11 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B40">
-        <v>617013.469760314</v>
+        <v>659412.0932239653</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -962,11 +962,11 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B41">
-        <v>295291.7412061068</v>
+        <v>1057068.923074063</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -977,11 +977,11 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B42">
-        <v>132700.1662231013</v>
+        <v>617013.469760314</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -992,11 +992,11 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B43">
-        <v>804077.0608966619</v>
+        <v>295291.7412061068</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1007,11 +1007,11 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B44">
-        <v>37474.72215132312</v>
+        <v>132700.1662231013</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B45">
-        <v>338778.7136666178</v>
+        <v>804077.0608966619</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1037,11 +1037,11 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>O</t>
         </is>
       </c>
       <c r="B46">
-        <v>153649.4449309464</v>
+        <v>37474.72215132312</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1052,11 +1052,11 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>P</t>
         </is>
       </c>
       <c r="B47">
-        <v>77997.04703493747</v>
+        <v>338778.7136666178</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1067,11 +1067,11 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="B48">
-        <v>653348.8444914499</v>
+        <v>153649.4449309464</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1082,11 +1082,11 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B49">
-        <v>6369029.931286051</v>
+        <v>77997.04703493747</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1097,56 +1097,56 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>S</t>
         </is>
       </c>
       <c r="B50">
-        <v>568639.5229830323</v>
+        <v>651432.304382985</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B51">
-        <v>91799.30726345834</v>
+        <v>1916.540108464908</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B52">
-        <v>759566.8237816942</v>
+        <v>6369029.931286051</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B53">
-        <v>50085.69150931443</v>
+        <v>568639.5229830323</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1157,11 +1157,11 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B54">
-        <v>690665.904212588</v>
+        <v>91799.30726345834</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1172,11 +1172,11 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B55">
-        <v>1110883.729714269</v>
+        <v>759566.8237816942</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1187,11 +1187,11 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B56">
-        <v>647388.5758849286</v>
+        <v>50085.69150931443</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1202,11 +1202,11 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B57">
-        <v>296460.5822096383</v>
+        <v>690665.904212588</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1217,11 +1217,11 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B58">
-        <v>144702.7274827183</v>
+        <v>1110883.729714269</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1232,11 +1232,11 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B59">
-        <v>843398.7813286904</v>
+        <v>647388.5758849286</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1247,11 +1247,11 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B60">
-        <v>40150.93950352917</v>
+        <v>296460.5822096383</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B61">
-        <v>369504.3739677266</v>
+        <v>144702.7274827183</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1277,11 +1277,11 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B62">
-        <v>160211.3736351978</v>
+        <v>843398.7813286904</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1292,11 +1292,11 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>O</t>
         </is>
       </c>
       <c r="B63">
-        <v>86710.95296084168</v>
+        <v>40150.93950352917</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1307,11 +1307,11 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>P</t>
         </is>
       </c>
       <c r="B64">
-        <v>657248.8569694861</v>
+        <v>369504.3739677266</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1322,11 +1322,11 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="B65">
-        <v>6517418.143407113</v>
+        <v>160211.3736351978</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1337,71 +1337,71 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B66">
-        <v>590808.134700754</v>
+        <v>86710.95296084168</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>S</t>
         </is>
       </c>
       <c r="B67">
-        <v>92056.098743557</v>
+        <v>653971.9470732986</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B68">
-        <v>749731.5757709079</v>
+        <v>3276.909896187492</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B69">
-        <v>58332.82011881885</v>
+        <v>6517418.143407113</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B70">
-        <v>697755.7087505066</v>
+        <v>590808.134700754</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1412,11 +1412,11 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B71">
-        <v>1145636.505152162</v>
+        <v>92056.098743557</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1427,11 +1427,11 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B72">
-        <v>638976.5743753902</v>
+        <v>749731.5757709079</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1442,11 +1442,11 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B73">
-        <v>313095.4306440739</v>
+        <v>58332.82011881885</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1457,11 +1457,11 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B74">
-        <v>148834.4894106076</v>
+        <v>697755.7087505066</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1472,11 +1472,11 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B75">
-        <v>834621.3420931923</v>
+        <v>1145636.505152162</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1487,11 +1487,11 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B76">
-        <v>27945.76391964668</v>
+        <v>638976.5743753902</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B77">
-        <v>381455.2566421496</v>
+        <v>313095.4306440739</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1517,11 +1517,11 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B78">
-        <v>175240.6335618533</v>
+        <v>148834.4894106076</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1532,11 +1532,11 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B79">
-        <v>81535.87278341119</v>
+        <v>834621.3420931923</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1547,11 +1547,11 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>O</t>
         </is>
       </c>
       <c r="B80">
-        <v>650976.2140880275</v>
+        <v>27945.76391964668</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1562,11 +1562,11 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>P</t>
         </is>
       </c>
       <c r="B81">
-        <v>6587002.420755059</v>
+        <v>381455.2566421496</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1577,86 +1577,86 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="B82">
-        <v>628083.0975815243</v>
+        <v>175240.6335618533</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B83">
-        <v>91309.2102555016</v>
+        <v>81535.87278341119</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>S</t>
         </is>
       </c>
       <c r="B84">
-        <v>826194.37881258</v>
+        <v>649942.1216312962</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B85">
-        <v>68679.7031644385</v>
+        <v>1034.092456731289</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B86">
-        <v>764435.5733416922</v>
+        <v>6587002.420755059</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B87">
-        <v>1410817.439473021</v>
+        <v>628083.0975815243</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1667,11 +1667,11 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B88">
-        <v>633843.310030214</v>
+        <v>91309.2102555016</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1682,11 +1682,11 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B89">
-        <v>365891.5451554383</v>
+        <v>826194.37881258</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1697,11 +1697,11 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B90">
-        <v>151271.0917846775</v>
+        <v>68679.7031644385</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1712,11 +1712,11 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B91">
-        <v>826147.2904235345</v>
+        <v>764435.5733416922</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1727,11 +1727,11 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B92">
-        <v>26425.84435513741</v>
+        <v>1410817.439473021</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B93">
-        <v>394343.4810672071</v>
+        <v>633843.310030214</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1757,11 +1757,11 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B94">
-        <v>213097.5981257629</v>
+        <v>365891.5451554383</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1772,11 +1772,11 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B95">
-        <v>68146.25549253156</v>
+        <v>151271.0917846775</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1787,11 +1787,11 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B96">
-        <v>602840.3939461452</v>
+        <v>826147.2904235345</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1802,11 +1802,11 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>O</t>
         </is>
       </c>
       <c r="B97">
-        <v>7071526.213009406</v>
+        <v>26425.84435513741</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1817,101 +1817,101 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>P</t>
         </is>
       </c>
       <c r="B98">
-        <v>659196.8029674004</v>
+        <v>394343.4810672071</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="B99">
-        <v>87837.59053389099</v>
+        <v>213097.5981257629</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B100">
-        <v>803704.7444035765</v>
+        <v>68146.25549253156</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>S</t>
         </is>
       </c>
       <c r="B101">
-        <v>75132.9041007216</v>
+        <v>600418.1425805232</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B102">
-        <v>702629.9839263401</v>
+        <v>2422.251365622006</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B103">
-        <v>1457000.080695258</v>
+        <v>7071526.213009406</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B104">
-        <v>640197.2530729155</v>
+        <v>659196.8029674004</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -1922,11 +1922,11 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B105">
-        <v>359172.430484837</v>
+        <v>87837.59053389099</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -1937,11 +1937,11 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B106">
-        <v>137258.9869761654</v>
+        <v>803704.7444035765</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -1952,11 +1952,11 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B107">
-        <v>871935.8562411043</v>
+        <v>75132.9041007216</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -1967,11 +1967,11 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B108">
-        <v>32590.95691039693</v>
+        <v>702629.9839263401</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B109">
-        <v>400087.2971637828</v>
+        <v>1457000.080695258</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -1997,11 +1997,11 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B110">
-        <v>215178.8104324876</v>
+        <v>640197.2530729155</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -2012,11 +2012,11 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B111">
-        <v>85675.42145630617</v>
+        <v>359172.430484837</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -2027,11 +2027,11 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B112">
-        <v>606403.15628942</v>
+        <v>137258.9869761654</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -2042,11 +2042,11 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B113">
-        <v>7134002.275654603</v>
+        <v>871935.8562411043</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2057,116 +2057,116 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>O</t>
         </is>
       </c>
       <c r="B114">
-        <v>663044.9571612754</v>
+        <v>32590.95691039693</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>P</t>
         </is>
       </c>
       <c r="B115">
-        <v>96748.22836721422</v>
+        <v>400087.2971637828</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="B116">
-        <v>839309.0123672406</v>
+        <v>215178.8104324876</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B117">
-        <v>68684.90016989813</v>
+        <v>85675.42145630617</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>S</t>
         </is>
       </c>
       <c r="B118">
-        <v>698337.6064379147</v>
+        <v>605320.1483373859</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B119">
-        <v>1428260.335141371</v>
+        <v>1083.007952034158</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B120">
-        <v>688038.5794124834</v>
+        <v>7134002.275654603</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B121">
-        <v>379246.2458920284</v>
+        <v>663044.9571612754</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2177,11 +2177,11 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B122">
-        <v>142719.9832990345</v>
+        <v>96748.22836721422</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2192,11 +2192,11 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B123">
-        <v>861573.5869951283</v>
+        <v>839309.0123672406</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -2207,11 +2207,11 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B124">
-        <v>28684.17498998103</v>
+        <v>68684.90016989813</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -2222,11 +2222,11 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B125">
-        <v>406633.1129222808</v>
+        <v>698337.6064379147</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -2237,11 +2237,11 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B126">
-        <v>229835.7754886912</v>
+        <v>1428260.335141371</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -2252,11 +2252,11 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B127">
-        <v>96069.47236729937</v>
+        <v>688038.5794124834</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2267,11 +2267,11 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B128">
-        <v>638516.7965222525</v>
+        <v>379246.2458920284</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -2282,11 +2282,11 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B129">
-        <v>7265702.767534094</v>
+        <v>142719.9832990345</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -2297,131 +2297,131 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B130">
-        <v>663121.8569514878</v>
+        <v>861573.5869951283</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="B131">
-        <v>92417.15993391896</v>
+        <v>28684.17498998103</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="B132">
-        <v>790461.2391113389</v>
+        <v>406633.1129222808</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="B133">
-        <v>71573.73613286363</v>
+        <v>229835.7754886912</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B134">
-        <v>757374.406268931</v>
+        <v>96069.47236729937</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>S</t>
         </is>
       </c>
       <c r="B135">
-        <v>1453552.487322328</v>
+        <v>634147.6145482924</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B136">
-        <v>714292.1290717579</v>
+        <v>4369.181973960196</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B137">
-        <v>426870.9281797456</v>
+        <v>7265702.767534094</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B138">
-        <v>139861.1704721237</v>
+        <v>663121.8569514878</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -2432,11 +2432,11 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B139">
-        <v>852757.3114812975</v>
+        <v>92417.15993391896</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2447,11 +2447,11 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B140">
-        <v>16634.8457579831</v>
+        <v>790461.2391113389</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B141">
-        <v>420575.0973209862</v>
+        <v>71573.73613286363</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -2477,11 +2477,11 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B142">
-        <v>238385.880809229</v>
+        <v>757374.406268931</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -2492,11 +2492,11 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B143">
-        <v>98628.52673832583</v>
+        <v>1453552.487322328</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -2507,11 +2507,11 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>H</t>
         </is>
       </c>
       <c r="B144">
-        <v>608676.9493290075</v>
+        <v>714292.1290717579</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -2522,11 +2522,11 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B145">
-        <v>7345183.724881325</v>
+        <v>426870.9281797456</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -2537,146 +2537,146 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B146">
-        <v>683143.3115761589</v>
+        <v>139861.1704721237</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>L</t>
         </is>
       </c>
       <c r="B147">
-        <v>101273.6180364268</v>
+        <v>852757.3114812975</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>O</t>
         </is>
       </c>
       <c r="B148">
-        <v>783185.2444855975</v>
+        <v>16634.8457579831</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>P</t>
         </is>
       </c>
       <c r="B149">
-        <v>81468.42929684307</v>
+        <v>420575.0973209862</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="B150">
-        <v>827684.8110586302</v>
+        <v>238385.880809229</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>R</t>
         </is>
       </c>
       <c r="B151">
-        <v>1515737.223343631</v>
+        <v>98628.52673832583</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>S</t>
         </is>
       </c>
       <c r="B152">
-        <v>681587.3607491757</v>
+        <v>607566.0012975604</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B153">
-        <v>433113.3838018371</v>
+        <v>1110.94803144716</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B154">
-        <v>168106.1100130048</v>
+        <v>7345183.724881325</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B155">
-        <v>810332.2407033488</v>
+        <v>683143.3115761589</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -2687,11 +2687,11 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B156">
-        <v>30442.27558818972</v>
+        <v>101273.6180364268</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B157">
-        <v>412655.0185299779</v>
+        <v>783185.2444855975</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -2717,11 +2717,11 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B158">
-        <v>271956.3412472144</v>
+        <v>81468.42929684307</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -2732,11 +2732,11 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B159">
-        <v>91284.91497531516</v>
+        <v>827684.8110586302</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -2747,11 +2747,11 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B160">
-        <v>615432.8145322034</v>
+        <v>1515737.223343631</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -2762,13 +2762,163 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="B161">
+        <v>681587.3607491757</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="B162">
+        <v>433113.3838018371</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="B163">
+        <v>168106.1100130048</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="B164">
+        <v>810332.2407033488</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="B165">
+        <v>30442.27558818972</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="B166">
+        <v>412655.0185299779</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="B167">
+        <v>271956.3412472144</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="B168">
+        <v>91284.91497531516</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="B169">
+        <v>614430.5891611609</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="B170">
+        <v>1002.225371042404</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B161">
+      <c r="B171">
         <v>7507403.097937554</v>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="C171" t="inlineStr">
         <is>
           <t>2019</t>
         </is>

--- a/output/data/totales_ene_99-19.xlsx
+++ b/output/data/totales_ene_99-19.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C171"/>
+  <dimension ref="A1:C161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -422,7 +422,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B5">
@@ -467,7 +467,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>HJ</t>
         </is>
       </c>
       <c r="B8">
@@ -512,7 +512,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>LMN</t>
         </is>
       </c>
       <c r="B11">
@@ -572,11 +572,11 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="B15">
-        <v>79023.46784889806</v>
+        <v>722868.3415958595</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -587,11 +587,11 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B16">
-        <v>643844.8737469614</v>
+        <v>2574.58448395478</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -602,11 +602,11 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B17">
-        <v>2574.58448395478</v>
+        <v>6096168.954503179</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -617,26 +617,26 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B18">
-        <v>6096168.954503179</v>
+        <v>629982.1194488708</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2010</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B19">
-        <v>629982.1194488708</v>
+        <v>101343.5099424662</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -647,11 +647,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B20">
-        <v>101343.5099424662</v>
+        <v>715893.6404185967</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -662,11 +662,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B21">
-        <v>715893.6404185967</v>
+        <v>54608.23290778473</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -677,11 +677,11 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B22">
-        <v>54608.23290778473</v>
+        <v>604212.5971102751</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -692,11 +692,11 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B23">
-        <v>604212.5971102751</v>
+        <v>1071654.213667749</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -707,11 +707,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>HJ</t>
         </is>
       </c>
       <c r="B24">
-        <v>1071654.213667749</v>
+        <v>571425.5193615217</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -722,11 +722,11 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B25">
-        <v>571425.5193615217</v>
+        <v>281585.6897512877</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -737,11 +737,11 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B26">
-        <v>281585.6897512877</v>
+        <v>115235.0122054687</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -752,11 +752,11 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>LMN</t>
         </is>
       </c>
       <c r="B27">
-        <v>115235.0122054687</v>
+        <v>869873.7964044551</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -767,11 +767,11 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>O</t>
         </is>
       </c>
       <c r="B28">
-        <v>869873.7964044551</v>
+        <v>41635.4328930312</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -782,11 +782,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>P</t>
         </is>
       </c>
       <c r="B29">
-        <v>41635.4328930312</v>
+        <v>301693.0884603203</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -797,11 +797,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="B30">
-        <v>301693.0884603203</v>
+        <v>137215.8953881836</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -812,11 +812,11 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="B31">
-        <v>137215.8953881836</v>
+        <v>767966.6091438441</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -827,11 +827,11 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B32">
-        <v>71895.51595208432</v>
+        <v>2121.714470077975</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -842,11 +842,11 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B33">
-        <v>696071.0931917598</v>
+        <v>6266447.071573933</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -857,41 +857,41 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B34">
-        <v>2121.714470077975</v>
+        <v>628578.5682660176</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B35">
-        <v>6266447.071573933</v>
+        <v>105463.107269501</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>2012</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B36">
-        <v>628578.5682660176</v>
+        <v>746259.5442245309</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -902,11 +902,11 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B37">
-        <v>105463.107269501</v>
+        <v>61916.48486651449</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -917,11 +917,11 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B38">
-        <v>746259.5442245309</v>
+        <v>659412.0932239653</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -932,11 +932,11 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B39">
-        <v>61916.48486651449</v>
+        <v>1057068.923074063</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -947,11 +947,11 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>HJ</t>
         </is>
       </c>
       <c r="B40">
-        <v>659412.0932239653</v>
+        <v>617013.469760314</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -962,11 +962,11 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B41">
-        <v>1057068.923074063</v>
+        <v>295291.7412061068</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -977,11 +977,11 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B42">
-        <v>617013.469760314</v>
+        <v>132700.1662231013</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -992,11 +992,11 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>LMN</t>
         </is>
       </c>
       <c r="B43">
-        <v>295291.7412061068</v>
+        <v>804077.0608966619</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1007,11 +1007,11 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>O</t>
         </is>
       </c>
       <c r="B44">
-        <v>132700.1662231013</v>
+        <v>37474.72215132312</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1022,11 +1022,11 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>P</t>
         </is>
       </c>
       <c r="B45">
-        <v>804077.0608966619</v>
+        <v>338778.7136666178</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1037,11 +1037,11 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="B46">
-        <v>37474.72215132312</v>
+        <v>153649.4449309464</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1052,11 +1052,11 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="B47">
-        <v>338778.7136666178</v>
+        <v>729429.3514179224</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -1067,11 +1067,11 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B48">
-        <v>153649.4449309464</v>
+        <v>1916.540108464908</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -1082,11 +1082,11 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B49">
-        <v>77997.04703493747</v>
+        <v>6369029.931286051</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1097,56 +1097,56 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B50">
-        <v>651432.304382985</v>
+        <v>568639.5229830323</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B51">
-        <v>1916.540108464908</v>
+        <v>91799.30726345834</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B52">
-        <v>6369029.931286051</v>
+        <v>759566.8237816942</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2013</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B53">
-        <v>568639.5229830323</v>
+        <v>50085.69150931443</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -1157,11 +1157,11 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B54">
-        <v>91799.30726345834</v>
+        <v>690665.904212588</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1172,11 +1172,11 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B55">
-        <v>759566.8237816942</v>
+        <v>1110883.729714269</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1187,11 +1187,11 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>HJ</t>
         </is>
       </c>
       <c r="B56">
-        <v>50085.69150931443</v>
+        <v>647388.5758849286</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -1202,11 +1202,11 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B57">
-        <v>690665.904212588</v>
+        <v>296460.5822096383</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -1217,11 +1217,11 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B58">
-        <v>1110883.729714269</v>
+        <v>144702.7274827183</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1232,11 +1232,11 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>LMN</t>
         </is>
       </c>
       <c r="B59">
-        <v>647388.5758849286</v>
+        <v>843398.7813286904</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1247,11 +1247,11 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>O</t>
         </is>
       </c>
       <c r="B60">
-        <v>296460.5822096383</v>
+        <v>40150.93950352917</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -1262,11 +1262,11 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>P</t>
         </is>
       </c>
       <c r="B61">
-        <v>144702.7274827183</v>
+        <v>369504.3739677266</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -1277,11 +1277,11 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="B62">
-        <v>843398.7813286904</v>
+        <v>160211.3736351978</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -1292,11 +1292,11 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="B63">
-        <v>40150.93950352917</v>
+        <v>740682.9000341403</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1307,11 +1307,11 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B64">
-        <v>369504.3739677266</v>
+        <v>3276.909896187492</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -1322,11 +1322,11 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B65">
-        <v>160211.3736351978</v>
+        <v>6517418.143407113</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -1337,71 +1337,71 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B66">
-        <v>86710.95296084168</v>
+        <v>590808.134700754</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B67">
-        <v>653971.9470732986</v>
+        <v>92056.098743557</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B68">
-        <v>3276.909896187492</v>
+        <v>749731.5757709079</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B69">
-        <v>6517418.143407113</v>
+        <v>58332.82011881885</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2013</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B70">
-        <v>590808.134700754</v>
+        <v>697755.7087505066</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1412,11 +1412,11 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B71">
-        <v>92056.098743557</v>
+        <v>1145636.505152162</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -1427,11 +1427,11 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>HJ</t>
         </is>
       </c>
       <c r="B72">
-        <v>749731.5757709079</v>
+        <v>638976.5743753902</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -1442,11 +1442,11 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B73">
-        <v>58332.82011881885</v>
+        <v>313095.4306440739</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -1457,11 +1457,11 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B74">
-        <v>697755.7087505066</v>
+        <v>148834.4894106076</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1472,11 +1472,11 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>LMN</t>
         </is>
       </c>
       <c r="B75">
-        <v>1145636.505152162</v>
+        <v>834621.3420931923</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -1487,11 +1487,11 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>O</t>
         </is>
       </c>
       <c r="B76">
-        <v>638976.5743753902</v>
+        <v>27945.76391964668</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -1502,11 +1502,11 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>P</t>
         </is>
       </c>
       <c r="B77">
-        <v>313095.4306440739</v>
+        <v>381455.2566421496</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -1517,11 +1517,11 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="B78">
-        <v>148834.4894106076</v>
+        <v>175240.6335618533</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1532,11 +1532,11 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="B79">
-        <v>834621.3420931923</v>
+        <v>731477.9944147074</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -1547,11 +1547,11 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B80">
-        <v>27945.76391964668</v>
+        <v>1034.092456731289</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1562,11 +1562,11 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B81">
-        <v>381455.2566421496</v>
+        <v>6587002.420755059</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -1577,86 +1577,86 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B82">
-        <v>175240.6335618533</v>
+        <v>628083.0975815243</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B83">
-        <v>81535.87278341119</v>
+        <v>91309.2102555016</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B84">
-        <v>649942.1216312962</v>
+        <v>826194.37881258</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B85">
-        <v>1034.092456731289</v>
+        <v>68679.7031644385</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B86">
-        <v>6587002.420755059</v>
+        <v>764435.5733416922</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B87">
-        <v>628083.0975815243</v>
+        <v>1410817.439473021</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -1667,11 +1667,11 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>HJ</t>
         </is>
       </c>
       <c r="B88">
-        <v>91309.2102555016</v>
+        <v>633843.310030214</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -1682,11 +1682,11 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B89">
-        <v>826194.37881258</v>
+        <v>365891.5451554383</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1697,11 +1697,11 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B90">
-        <v>68679.7031644385</v>
+        <v>151271.0917846775</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -1712,11 +1712,11 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>LMN</t>
         </is>
       </c>
       <c r="B91">
-        <v>764435.5733416922</v>
+        <v>826147.2904235345</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1727,11 +1727,11 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>O</t>
         </is>
       </c>
       <c r="B92">
-        <v>1410817.439473021</v>
+        <v>26425.84435513741</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1742,11 +1742,11 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>P</t>
         </is>
       </c>
       <c r="B93">
-        <v>633843.310030214</v>
+        <v>394343.4810672071</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1757,11 +1757,11 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="B94">
-        <v>365891.5451554383</v>
+        <v>213097.5981257629</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -1772,11 +1772,11 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="B95">
-        <v>151271.0917846775</v>
+        <v>668564.3980730547</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -1787,11 +1787,11 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B96">
-        <v>826147.2904235345</v>
+        <v>2422.251365622006</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -1802,11 +1802,11 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B97">
-        <v>26425.84435513741</v>
+        <v>7071526.213009406</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1817,101 +1817,101 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B98">
-        <v>394343.4810672071</v>
+        <v>659196.8029674004</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B99">
-        <v>213097.5981257629</v>
+        <v>87837.59053389099</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B100">
-        <v>68146.25549253156</v>
+        <v>803704.7444035765</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B101">
-        <v>600418.1425805232</v>
+        <v>75132.9041007216</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B102">
-        <v>2422.251365622006</v>
+        <v>702629.9839263401</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B103">
-        <v>7071526.213009406</v>
+        <v>1457000.080695258</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>HJ</t>
         </is>
       </c>
       <c r="B104">
-        <v>659196.8029674004</v>
+        <v>640197.2530729155</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -1922,11 +1922,11 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B105">
-        <v>87837.59053389099</v>
+        <v>359172.430484837</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -1937,11 +1937,11 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B106">
-        <v>803704.7444035765</v>
+        <v>137258.9869761654</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -1952,11 +1952,11 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>LMN</t>
         </is>
       </c>
       <c r="B107">
-        <v>75132.9041007216</v>
+        <v>871935.8562411043</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -1967,11 +1967,11 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>O</t>
         </is>
       </c>
       <c r="B108">
-        <v>702629.9839263401</v>
+        <v>32590.95691039693</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -1982,11 +1982,11 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>P</t>
         </is>
       </c>
       <c r="B109">
-        <v>1457000.080695258</v>
+        <v>400087.2971637828</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -1997,11 +1997,11 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="B110">
-        <v>640197.2530729155</v>
+        <v>215178.8104324876</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -2012,11 +2012,11 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="B111">
-        <v>359172.430484837</v>
+        <v>690995.569793692</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -2027,11 +2027,11 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B112">
-        <v>137258.9869761654</v>
+        <v>1083.007952034158</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -2042,11 +2042,11 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B113">
-        <v>871935.8562411043</v>
+        <v>7134002.275654603</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -2057,116 +2057,116 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B114">
-        <v>32590.95691039693</v>
+        <v>663044.9571612754</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B115">
-        <v>400087.2971637828</v>
+        <v>96748.22836721422</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B116">
-        <v>215178.8104324876</v>
+        <v>839309.0123672406</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B117">
-        <v>85675.42145630617</v>
+        <v>68684.90016989813</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B118">
-        <v>605320.1483373859</v>
+        <v>698337.6064379147</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B119">
-        <v>1083.007952034158</v>
+        <v>1428260.335141371</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>HJ</t>
         </is>
       </c>
       <c r="B120">
-        <v>7134002.275654603</v>
+        <v>688038.5794124834</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B121">
-        <v>663044.9571612754</v>
+        <v>379246.2458920284</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2177,11 +2177,11 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B122">
-        <v>96748.22836721422</v>
+        <v>142719.9832990345</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2192,11 +2192,11 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>LMN</t>
         </is>
       </c>
       <c r="B123">
-        <v>839309.0123672406</v>
+        <v>861573.5869951283</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -2207,11 +2207,11 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>O</t>
         </is>
       </c>
       <c r="B124">
-        <v>68684.90016989813</v>
+        <v>28684.17498998103</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -2222,11 +2222,11 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>P</t>
         </is>
       </c>
       <c r="B125">
-        <v>698337.6064379147</v>
+        <v>406633.1129222808</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -2237,11 +2237,11 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="B126">
-        <v>1428260.335141371</v>
+        <v>229835.7754886912</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -2252,11 +2252,11 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="B127">
-        <v>688038.5794124834</v>
+        <v>730217.0869155917</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -2267,11 +2267,11 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B128">
-        <v>379246.2458920284</v>
+        <v>4369.181973960196</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -2282,11 +2282,11 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B129">
-        <v>142719.9832990345</v>
+        <v>7265702.767534094</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -2297,131 +2297,131 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B130">
-        <v>861573.5869951283</v>
+        <v>663121.8569514878</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B131">
-        <v>28684.17498998103</v>
+        <v>92417.15993391896</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B132">
-        <v>406633.1129222808</v>
+        <v>790461.2391113389</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B133">
-        <v>229835.7754886912</v>
+        <v>71573.73613286363</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B134">
-        <v>96069.47236729937</v>
+        <v>757374.406268931</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B135">
-        <v>634147.6145482924</v>
+        <v>1453552.487322328</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>HJ</t>
         </is>
       </c>
       <c r="B136">
-        <v>4369.181973960196</v>
+        <v>714292.1290717579</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B137">
-        <v>7265702.767534094</v>
+        <v>426870.9281797456</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B138">
-        <v>663121.8569514878</v>
+        <v>139861.1704721237</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -2432,11 +2432,11 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>LMN</t>
         </is>
       </c>
       <c r="B139">
-        <v>92417.15993391896</v>
+        <v>852757.3114812975</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2447,11 +2447,11 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>O</t>
         </is>
       </c>
       <c r="B140">
-        <v>790461.2391113389</v>
+        <v>16634.8457579831</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -2462,11 +2462,11 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>P</t>
         </is>
       </c>
       <c r="B141">
-        <v>71573.73613286363</v>
+        <v>420575.0973209862</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -2477,11 +2477,11 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="B142">
-        <v>757374.406268931</v>
+        <v>238385.880809229</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -2492,11 +2492,11 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="B143">
-        <v>1453552.487322328</v>
+        <v>706194.5280358862</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -2507,11 +2507,11 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B144">
-        <v>714292.1290717579</v>
+        <v>1110.94803144716</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -2522,11 +2522,11 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B145">
-        <v>426870.9281797456</v>
+        <v>7345183.724881325</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -2537,146 +2537,146 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>K</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B146">
-        <v>139861.1704721237</v>
+        <v>683143.3115761589</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B147">
-        <v>852757.3114812975</v>
+        <v>101273.6180364268</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B148">
-        <v>16634.8457579831</v>
+        <v>783185.2444855975</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B149">
-        <v>420575.0973209862</v>
+        <v>81468.42929684307</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Q</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B150">
-        <v>238385.880809229</v>
+        <v>827684.8110586302</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>G</t>
         </is>
       </c>
       <c r="B151">
-        <v>98628.52673832583</v>
+        <v>1515737.223343631</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>HJ</t>
         </is>
       </c>
       <c r="B152">
-        <v>607566.0012975604</v>
+        <v>681587.3607491757</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>I</t>
         </is>
       </c>
       <c r="B153">
-        <v>1110.94803144716</v>
+        <v>433113.3838018371</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>K</t>
         </is>
       </c>
       <c r="B154">
-        <v>7345183.724881325</v>
+        <v>168106.1100130048</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>A</t>
+          <t>LMN</t>
         </is>
       </c>
       <c r="B155">
-        <v>683143.3115761589</v>
+        <v>810332.2407033488</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -2687,11 +2687,11 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>O</t>
         </is>
       </c>
       <c r="B156">
-        <v>101273.6180364268</v>
+        <v>30442.27558818972</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -2702,11 +2702,11 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>P</t>
         </is>
       </c>
       <c r="B157">
-        <v>783185.2444855975</v>
+        <v>412655.0185299779</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -2717,11 +2717,11 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Q</t>
         </is>
       </c>
       <c r="B158">
-        <v>81468.42929684307</v>
+        <v>271956.3412472144</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -2732,11 +2732,11 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="B159">
-        <v>827684.8110586302</v>
+        <v>705715.5041364761</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -2747,11 +2747,11 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>G</t>
+          <t>T</t>
         </is>
       </c>
       <c r="B160">
-        <v>1515737.223343631</v>
+        <v>1002.225371042404</v>
       </c>
       <c r="C160" t="inlineStr">
         <is>
@@ -2762,163 +2762,13 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B161">
-        <v>681587.3607491757</v>
+        <v>7507403.097937554</v>
       </c>
       <c r="C161" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="B162">
-        <v>433113.3838018371</v>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
-      <c r="B163">
-        <v>168106.1100130048</v>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="B164">
-        <v>810332.2407033488</v>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="B165">
-        <v>30442.27558818972</v>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>P</t>
-        </is>
-      </c>
-      <c r="B166">
-        <v>412655.0185299779</v>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="B167">
-        <v>271956.3412472144</v>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>R</t>
-        </is>
-      </c>
-      <c r="B168">
-        <v>91284.91497531516</v>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="B169">
-        <v>614430.5891611609</v>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>T</t>
-        </is>
-      </c>
-      <c r="B170">
-        <v>1002.225371042404</v>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B171">
-        <v>7507403.097937554</v>
-      </c>
-      <c r="C171" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
